--- a/eclipse-workspace/powergrab/evaluator/report.xlsx
+++ b/eclipse-workspace/powergrab/evaluator/report.xlsx
@@ -442,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.651609024964273</v>
+        <v>0.4381818789988756</v>
       </c>
       <c r="E2" s="2">
         <v>1880.435550857422</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.361250767018646</v>
+        <v>0.4208379450719804</v>
       </c>
       <c r="E3" s="2">
         <v>2218.500638371392</v>
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>0.3598195340018719</v>
+        <v>0.3966300110332668</v>
       </c>
       <c r="E4" s="2">
         <v>2215.856901222008</v>
@@ -535,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>0.360529633006081</v>
+        <v>0.418529411079362</v>
       </c>
       <c r="E5" s="2">
         <v>2384.317398222062</v>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>0.3610436109593138</v>
+        <v>0.4044235579203814</v>
       </c>
       <c r="E6" s="2">
         <v>2482.994690262762</v>
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>0.3818876929581165</v>
+        <v>0.4155693780630827</v>
       </c>
       <c r="E7" s="2">
         <v>1854.185027252189</v>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>0.3586101250257343</v>
+        <v>0.392437171889469</v>
       </c>
       <c r="E8" s="2">
         <v>1654.772496609385</v>
@@ -652,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>0.3677484439685941</v>
+        <v>0.4068446091841906</v>
       </c>
       <c r="E9" s="2">
         <v>2566.45271397831</v>
@@ -676,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>0.3642729630228132</v>
+        <v>0.4207691489718854</v>
       </c>
       <c r="E10" s="2">
         <v>1824.123270611745</v>
@@ -700,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>0.3681237120181322</v>
+        <v>0.4063156149350107</v>
       </c>
       <c r="E11" s="2">
         <v>2461.819799417577</v>
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>0.3667315220227465</v>
+        <v>0.3911389929708093</v>
       </c>
       <c r="E12" s="2">
         <v>1679.463243794905</v>
@@ -748,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>0.3637006659992039</v>
+        <v>0.4330834490247071</v>
       </c>
       <c r="E13" s="2">
         <v>2288.763946670268</v>
@@ -772,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>0.3697058759862557</v>
+        <v>0.4123713879380375</v>
       </c>
       <c r="E14" s="2">
         <v>1862.346206733525</v>
@@ -796,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>0.373075683019124</v>
+        <v>0.3860699678771198</v>
       </c>
       <c r="E15" s="2">
         <v>2216.287921935182</v>
@@ -820,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="2">
-        <v>0.3662422000197694</v>
+        <v>0.3998676021583378</v>
       </c>
       <c r="E16" s="2">
         <v>2136.604240860626</v>
@@ -844,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="2">
-        <v>0.3595093600451946</v>
+        <v>0.4289589871186763</v>
       </c>
       <c r="E17" s="2">
         <v>2254.897660776275</v>
@@ -868,7 +868,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>0.368692517047748</v>
+        <v>0.3888192141894251</v>
       </c>
       <c r="E18" s="2">
         <v>1917.131395886052</v>
@@ -892,7 +892,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="2">
-        <v>0.3777880909619853</v>
+        <v>0.3850811251904815</v>
       </c>
       <c r="E19" s="2">
         <v>1616.769684899359</v>
@@ -916,7 +916,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="2">
-        <v>0.357191045070067</v>
+        <v>0.4005422899499536</v>
       </c>
       <c r="E20" s="2">
         <v>2121.347531146519</v>
@@ -940,7 +940,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>0.3651636759750545</v>
+        <v>0.381459535099566</v>
       </c>
       <c r="E21" s="2">
         <v>2146.219525002699</v>
@@ -964,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>0.3763187939766794</v>
+        <v>0.4038396668620408</v>
       </c>
       <c r="E22" s="2">
         <v>2291.843329263006</v>
@@ -988,7 +988,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="2">
-        <v>0.389578576083295</v>
+        <v>0.3858180430252105</v>
       </c>
       <c r="E23" s="2">
         <v>2332.901090260365</v>
@@ -1012,7 +1012,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="2">
-        <v>0.3631492519052699</v>
+        <v>0.393264887155965</v>
       </c>
       <c r="E24" s="2">
         <v>1847.758802812501</v>
@@ -1036,7 +1036,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="2">
-        <v>0.3576858870219439</v>
+        <v>0.409603213891387</v>
       </c>
       <c r="E25" s="2">
         <v>2171.401305366863</v>
@@ -1060,7 +1060,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>0.3786091710207984</v>
+        <v>0.385787591105327</v>
       </c>
       <c r="E26" s="2">
         <v>1882.822391520744</v>
@@ -1084,7 +1084,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="2">
-        <v>0.3864690049085766</v>
+        <v>0.3959496668539941</v>
       </c>
       <c r="E27" s="2">
         <v>1648.979333412594</v>
@@ -1108,7 +1108,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>0.3625730429776013</v>
+        <v>0.4026183849200606</v>
       </c>
       <c r="E28" s="2">
         <v>2370.965285848897</v>
@@ -1132,7 +1132,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="2">
-        <v>0.3684118869714439</v>
+        <v>0.3827715429943055</v>
       </c>
       <c r="E29" s="2">
         <v>2423.001308698957</v>
@@ -1156,7 +1156,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="2">
-        <v>0.3851875870022923</v>
+        <v>0.4149495870806277</v>
       </c>
       <c r="E30" s="2">
         <v>1881.938471915356</v>
@@ -1180,7 +1180,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="2">
-        <v>0.3613908720435575</v>
+        <v>0.391581870149821</v>
       </c>
       <c r="E31" s="2">
         <v>2065.167075666091</v>
@@ -1204,7 +1204,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>0.3644375839503482</v>
+        <v>0.3891613071318716</v>
       </c>
       <c r="E32" s="2">
         <v>2483.174297421039</v>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>0.3600438709836453</v>
+        <v>0.4061300421599299</v>
       </c>
       <c r="E33" s="2">
         <v>1711.470662080814</v>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>0.3685735040344298</v>
+        <v>0.402546445839107</v>
       </c>
       <c r="E34" s="2">
         <v>2136.193681454619</v>
@@ -1276,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.3626355519518256</v>
+        <v>0.4053985020145774</v>
       </c>
       <c r="E35" s="2">
         <v>2102.189835901266</v>
@@ -1300,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="2">
-        <v>0.3655337769305333</v>
+        <v>0.4097607810981572</v>
       </c>
       <c r="E36" s="2">
         <v>2203.501973267502</v>
@@ -1324,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="2">
-        <v>0.3678339320467785</v>
+        <v>0.3877417400944978</v>
       </c>
       <c r="E37" s="2">
         <v>2714.150611497831</v>
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="2">
-        <v>0.3622791419038549</v>
+        <v>0.4023612211458385</v>
       </c>
       <c r="E38" s="2">
         <v>2133.933967373171</v>
@@ -1372,7 +1372,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="2">
-        <v>0.3681797970784828</v>
+        <v>0.3988298689946532</v>
       </c>
       <c r="E39" s="2">
         <v>2489.338018087221</v>
@@ -1396,7 +1396,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="2">
-        <v>0.4043346819235012</v>
+        <v>0.4118961738422513</v>
       </c>
       <c r="E40" s="2">
         <v>2474.073909637841</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2">
-        <v>0.3672278999583796</v>
+        <v>0.4024131160695106</v>
       </c>
       <c r="E41" s="2">
         <v>2297.53803294423</v>
@@ -1444,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="2">
-        <v>0.3667269130237401</v>
+        <v>0.3896916978992522</v>
       </c>
       <c r="E42" s="2">
         <v>2058.89725868876</v>
@@ -1468,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>0.3668388009537011</v>
+        <v>0.4124768511392176</v>
       </c>
       <c r="E43" s="2">
         <v>2188.519720405295</v>
@@ -1492,7 +1492,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="2">
-        <v>0.3633147809887305</v>
+        <v>0.373960587894544</v>
       </c>
       <c r="E44" s="2">
         <v>3050.04982739275</v>
@@ -1516,7 +1516,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="2">
-        <v>0.4233149910578504</v>
+        <v>0.4295912799425423</v>
       </c>
       <c r="E45" s="2">
         <v>2443.454107267583</v>
@@ -1540,7 +1540,7 @@
         <v>14</v>
       </c>
       <c r="D46" s="2">
-        <v>0.3670964539051056</v>
+        <v>0.406361852074042</v>
       </c>
       <c r="E46" s="2">
         <v>2103.347035641125</v>
@@ -1564,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="2">
-        <v>0.3619753919774666</v>
+        <v>0.3821359688881785</v>
       </c>
       <c r="E47" s="2">
         <v>3050.793778149115</v>
@@ -1588,7 +1588,7 @@
         <v>16</v>
       </c>
       <c r="D48" s="2">
-        <v>0.3620913319755346</v>
+        <v>0.3906648249831051</v>
       </c>
       <c r="E48" s="2">
         <v>2444.094014359898</v>
@@ -1612,7 +1612,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="2">
-        <v>0.3587789359735325</v>
+        <v>0.4218169399537146</v>
       </c>
       <c r="E49" s="2">
         <v>2021.316244151838</v>
@@ -1636,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="D50" s="2">
-        <v>0.3717566189588979</v>
+        <v>0.4465141969267279</v>
       </c>
       <c r="E50" s="2">
         <v>2412.633415006096</v>
@@ -1660,7 +1660,7 @@
         <v>19</v>
       </c>
       <c r="D51" s="2">
-        <v>0.3750154449371621</v>
+        <v>0.4070779569447041</v>
       </c>
       <c r="E51" s="2">
         <v>2101.961259957808</v>
@@ -1684,7 +1684,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="2">
-        <v>0.3637075100559741</v>
+        <v>0.4207521069329232</v>
       </c>
       <c r="E52" s="2">
         <v>2390.705024767528</v>
@@ -1708,7 +1708,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="2">
-        <v>0.3635103419655934</v>
+        <v>0.3970918159466237</v>
       </c>
       <c r="E53" s="2">
         <v>2384.477517002013</v>
@@ -1732,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="D54" s="2">
-        <v>0.366533306078054</v>
+        <v>0.3920002321247011</v>
       </c>
       <c r="E54" s="2">
         <v>2024.522265184489</v>
@@ -1756,7 +1756,7 @@
         <v>23</v>
       </c>
       <c r="D55" s="2">
-        <v>0.3772137680789456</v>
+        <v>0.3941457509063184</v>
       </c>
       <c r="E55" s="2">
         <v>2099.786323386943</v>
@@ -1780,7 +1780,7 @@
         <v>24</v>
       </c>
       <c r="D56" s="2">
-        <v>0.3929020060459152</v>
+        <v>0.4045080691576004</v>
       </c>
       <c r="E56" s="2">
         <v>2428.836695640345</v>
@@ -1804,7 +1804,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2">
-        <v>0.3930078190751374</v>
+        <v>0.4096026560291648</v>
       </c>
       <c r="E57" s="2">
         <v>1936.958929914982</v>
@@ -1828,7 +1828,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="2">
-        <v>0.362493003020063</v>
+        <v>0.3995433889795095</v>
       </c>
       <c r="E58" s="2">
         <v>2807.576551111727</v>
@@ -1852,7 +1852,7 @@
         <v>27</v>
       </c>
       <c r="D59" s="2">
-        <v>0.3606143520446494</v>
+        <v>0.4064017320051789</v>
       </c>
       <c r="E59" s="2">
         <v>2173.794976383858</v>
@@ -1876,7 +1876,7 @@
         <v>28</v>
       </c>
       <c r="D60" s="2">
-        <v>0.368447786080651</v>
+        <v>0.4055961589328945</v>
       </c>
       <c r="E60" s="2">
         <v>2218.270608169488</v>
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2">
-        <v>0.3667399029945955</v>
+        <v>0.39097192697227</v>
       </c>
       <c r="E61" s="2">
         <v>2012.97839170426</v>
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="2">
-        <v>0.3606978150783107</v>
+        <v>0.4028798090294003</v>
       </c>
       <c r="E62" s="2">
         <v>2051.283450228911</v>
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="2">
-        <v>0.3643930930411443</v>
+        <v>0.4107299980241805</v>
       </c>
       <c r="E63" s="2">
         <v>2177.07886467898</v>
@@ -1972,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="2">
-        <v>0.3918206900125369</v>
+        <v>0.4282084500882775</v>
       </c>
       <c r="E64" s="2">
         <v>2665.347329348984</v>
@@ -1996,7 +1996,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="2">
-        <v>0.3909667830448598</v>
+        <v>0.4044294951017946</v>
       </c>
       <c r="E65" s="2">
         <v>1792.582924883986</v>
@@ -2020,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="2">
-        <v>0.3811859759734944</v>
+        <v>0.3993724819738418</v>
       </c>
       <c r="E66" s="2">
         <v>2558.155264972005</v>
@@ -2044,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="2">
-        <v>0.3639753599418327</v>
+        <v>0.4041570350527763</v>
       </c>
       <c r="E67" s="2">
         <v>2279.502128405958</v>
@@ -2068,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="2">
-        <v>0.3687525819987059</v>
+        <v>0.4183293089736253</v>
       </c>
       <c r="E68" s="2">
         <v>1998.080267334324</v>
@@ -2092,7 +2092,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2">
-        <v>0.3984067880082875</v>
+        <v>0.3913995081093162</v>
       </c>
       <c r="E69" s="2">
         <v>1877.620855618634</v>
@@ -2116,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="2">
-        <v>0.3623441649833694</v>
+        <v>0.3917416019830853</v>
       </c>
       <c r="E70" s="2">
         <v>2098.222583572444</v>
@@ -2140,7 +2140,7 @@
         <v>11</v>
       </c>
       <c r="D71" s="2">
-        <v>0.3740833149058744</v>
+        <v>0.3988944049924612</v>
       </c>
       <c r="E71" s="2">
         <v>2106.175016203056</v>
@@ -2164,7 +2164,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="2">
-        <v>0.3863963671028614</v>
+        <v>0.4338024179451168</v>
       </c>
       <c r="E72" s="2">
         <v>2031.893076927213</v>
@@ -2188,7 +2188,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="2">
-        <v>0.3808651150902733</v>
+        <v>0.3890269279945642</v>
       </c>
       <c r="E73" s="2">
         <v>1887.246353673753</v>
@@ -2212,7 +2212,7 @@
         <v>14</v>
       </c>
       <c r="D74" s="2">
-        <v>0.3613838880555704</v>
+        <v>0.4055132549256086</v>
       </c>
       <c r="E74" s="2">
         <v>2349.957321814068</v>
@@ -2236,7 +2236,7 @@
         <v>15</v>
       </c>
       <c r="D75" s="2">
-        <v>0.3595902379602194</v>
+        <v>0.3882806510664523</v>
       </c>
       <c r="E75" s="2">
         <v>1973.582378564819</v>
@@ -2260,7 +2260,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="2">
-        <v>0.3650102999527007</v>
+        <v>0.4037930117920041</v>
       </c>
       <c r="E76" s="2">
         <v>2264.133558128131</v>
@@ -2284,7 +2284,7 @@
         <v>17</v>
       </c>
       <c r="D77" s="2">
-        <v>0.3619457780150697</v>
+        <v>0.4032008089125156</v>
       </c>
       <c r="E77" s="2">
         <v>2266.682273977592</v>
@@ -2308,7 +2308,7 @@
         <v>18</v>
       </c>
       <c r="D78" s="2">
-        <v>0.3620618589920923</v>
+        <v>0.4092002178076655</v>
       </c>
       <c r="E78" s="2">
         <v>2071.209564129969</v>
@@ -2332,7 +2332,7 @@
         <v>19</v>
       </c>
       <c r="D79" s="2">
-        <v>0.3948882849654183</v>
+        <v>0.4153466469142586</v>
       </c>
       <c r="E79" s="2">
         <v>2272.493067013165</v>
@@ -2356,7 +2356,7 @@
         <v>20</v>
       </c>
       <c r="D80" s="2">
-        <v>0.3642591339303181</v>
+        <v>0.3948348960839212</v>
       </c>
       <c r="E80" s="2">
         <v>2141.589678787966</v>
@@ -2380,7 +2380,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="2">
-        <v>0.3916554399766028</v>
+        <v>0.3965387959033251</v>
       </c>
       <c r="E81" s="2">
         <v>1716.756435372441</v>
@@ -2404,7 +2404,7 @@
         <v>22</v>
       </c>
       <c r="D82" s="2">
-        <v>0.3723876549629495</v>
+        <v>0.4111832820344716</v>
       </c>
       <c r="E82" s="2">
         <v>2496.082027805238</v>
@@ -2428,7 +2428,7 @@
         <v>23</v>
       </c>
       <c r="D83" s="2">
-        <v>0.3632491279859096</v>
+        <v>0.3949740251991898</v>
       </c>
       <c r="E83" s="2">
         <v>1884.28023418058</v>
@@ -2452,7 +2452,7 @@
         <v>24</v>
       </c>
       <c r="D84" s="2">
-        <v>0.3767720089526847</v>
+        <v>0.3913863790221512</v>
       </c>
       <c r="E84" s="2">
         <v>2388.319351679738</v>
@@ -2476,7 +2476,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="2">
-        <v>0.3598557829391211</v>
+        <v>0.4001406198367476</v>
       </c>
       <c r="E85" s="2">
         <v>1948.509152029312</v>
@@ -2500,7 +2500,7 @@
         <v>26</v>
       </c>
       <c r="D86" s="2">
-        <v>0.3559016659855843</v>
+        <v>0.3801131639629602</v>
       </c>
       <c r="E86" s="2">
         <v>2414.001948554051</v>
@@ -2524,7 +2524,7 @@
         <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>0.3633329389849678</v>
+        <v>0.4049451479222625</v>
       </c>
       <c r="E87" s="2">
         <v>1734.229765413779</v>
@@ -2548,7 +2548,7 @@
         <v>28</v>
       </c>
       <c r="D88" s="2">
-        <v>0.3908516810042784</v>
+        <v>0.3973971020895988</v>
       </c>
       <c r="E88" s="2">
         <v>2071.66487477655</v>
@@ -2572,7 +2572,7 @@
         <v>29</v>
       </c>
       <c r="D89" s="2">
-        <v>0.3905097279930487</v>
+        <v>0.4003741058986634</v>
       </c>
       <c r="E89" s="2">
         <v>1920.681444017422</v>
@@ -2596,7 +2596,7 @@
         <v>30</v>
       </c>
       <c r="D90" s="2">
-        <v>0.3656730439979583</v>
+        <v>0.407779673114419</v>
       </c>
       <c r="E90" s="2">
         <v>2533.411179993872</v>
@@ -2620,7 +2620,7 @@
         <v>31</v>
       </c>
       <c r="D91" s="2">
-        <v>0.4031069729244336</v>
+        <v>0.4338609459809959</v>
       </c>
       <c r="E91" s="2">
         <v>2147.713192533203</v>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="2">
-        <v>0.3768304670229554</v>
+        <v>0.410844889935106</v>
       </c>
       <c r="E92" s="2">
         <v>2433.830881494296</v>
@@ -2668,7 +2668,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="2">
-        <v>0.3669133249204606</v>
+        <v>0.3906826358288527</v>
       </c>
       <c r="E93" s="2">
         <v>2407.312547262954</v>
@@ -2692,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="2">
-        <v>0.386083677993156</v>
+        <v>0.4045746990013868</v>
       </c>
       <c r="E94" s="2">
         <v>2161.049146836329</v>
@@ -2716,7 +2716,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="2">
-        <v>0.3680458359885961</v>
+        <v>0.4025587379001081</v>
       </c>
       <c r="E95" s="2">
         <v>2274.810720700573</v>
@@ -2740,7 +2740,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="2">
-        <v>0.3730166649911553</v>
+        <v>0.4300427469424903</v>
       </c>
       <c r="E96" s="2">
         <v>2607.343398394959</v>
@@ -2764,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="2">
-        <v>0.3571663200855255</v>
+        <v>0.4090951741673052</v>
       </c>
       <c r="E97" s="2">
         <v>2672.076539446277</v>
@@ -2788,7 +2788,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="2">
-        <v>0.391417064005509</v>
+        <v>0.3973100071307272</v>
       </c>
       <c r="E98" s="2">
         <v>2311.581861488192</v>
@@ -2812,7 +2812,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="2">
-        <v>0.637438555015251</v>
+        <v>0.3967616660520434</v>
       </c>
       <c r="E99" s="2">
         <v>2052.676109092338</v>
@@ -2836,7 +2836,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2">
-        <v>0.3692616719054058</v>
+        <v>0.3955665759276599</v>
       </c>
       <c r="E100" s="2">
         <v>2042.369788350777</v>
@@ -2860,7 +2860,7 @@
         <v>10</v>
       </c>
       <c r="D101" s="2">
-        <v>0.3598568310262635</v>
+        <v>0.3866146767977625</v>
       </c>
       <c r="E101" s="2">
         <v>2716.566971935454</v>
@@ -2884,7 +2884,7 @@
         <v>11</v>
       </c>
       <c r="D102" s="2">
-        <v>0.4662685790099204</v>
+        <v>0.4118267490994185</v>
       </c>
       <c r="E102" s="2">
         <v>2085.687588938484</v>
@@ -2908,7 +2908,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2">
-        <v>0.695269707008265</v>
+        <v>0.4032902789767832</v>
       </c>
       <c r="E103" s="2">
         <v>2456.689901301214</v>
@@ -2932,7 +2932,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="2">
-        <v>0.3759056000271812</v>
+        <v>0.4184543990995735</v>
       </c>
       <c r="E104" s="2">
         <v>1992.452481926058</v>
@@ -2956,7 +2956,7 @@
         <v>14</v>
       </c>
       <c r="D105" s="2">
-        <v>0.3621750749880448</v>
+        <v>0.4164464720524848</v>
       </c>
       <c r="E105" s="2">
         <v>1784.958332873223</v>
@@ -2980,7 +2980,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="2">
-        <v>0.3605742619838566</v>
+        <v>0.3973402490373701</v>
       </c>
       <c r="E106" s="2">
         <v>2113.649987522091</v>
@@ -3004,7 +3004,7 @@
         <v>16</v>
       </c>
       <c r="D107" s="2">
-        <v>0.3811907239723951</v>
+        <v>0.4085487879347056</v>
       </c>
       <c r="E107" s="2">
         <v>2834.042648056311</v>
@@ -3028,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="D108" s="2">
-        <v>0.3650092519819736</v>
+        <v>0.3956205651629716</v>
       </c>
       <c r="E108" s="2">
         <v>2203.992252756309</v>
@@ -3052,7 +3052,7 @@
         <v>18</v>
       </c>
       <c r="D109" s="2">
-        <v>0.3769122529774904</v>
+        <v>0.4036784679628909</v>
       </c>
       <c r="E109" s="2">
         <v>2646.171754674239</v>
@@ -3076,7 +3076,7 @@
         <v>19</v>
       </c>
       <c r="D110" s="2">
-        <v>0.3684525340795517</v>
+        <v>0.4052730628754944</v>
       </c>
       <c r="E110" s="2">
         <v>2461.999712234548</v>
@@ -3100,7 +3100,7 @@
         <v>20</v>
       </c>
       <c r="D111" s="2">
-        <v>0.3737442250130698</v>
+        <v>0.4097425520885736</v>
       </c>
       <c r="E111" s="2">
         <v>1994.718661832441</v>
@@ -3124,7 +3124,7 @@
         <v>21</v>
       </c>
       <c r="D112" s="2">
-        <v>0.3747346749296412</v>
+        <v>0.3908649268560112</v>
       </c>
       <c r="E112" s="2">
         <v>2310.970542376888</v>
@@ -3148,7 +3148,7 @@
         <v>22</v>
       </c>
       <c r="D113" s="2">
-        <v>0.3574984259903431</v>
+        <v>0.4124308249447495</v>
       </c>
       <c r="E113" s="2">
         <v>2244.904959705801</v>
@@ -3172,7 +3172,7 @@
         <v>23</v>
       </c>
       <c r="D114" s="2">
-        <v>0.3695563399232924</v>
+        <v>0.411093951901421</v>
       </c>
       <c r="E114" s="2">
         <v>2133.542564063142</v>
@@ -3196,7 +3196,7 @@
         <v>24</v>
       </c>
       <c r="D115" s="2">
-        <v>0.3632686830824241</v>
+        <v>0.4976067431271076</v>
       </c>
       <c r="E115" s="2">
         <v>2257.42201103168</v>
@@ -3220,7 +3220,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2">
-        <v>0.3632356469752267</v>
+        <v>0.4118311489000916</v>
       </c>
       <c r="E116" s="2">
         <v>2015.92492322392</v>
@@ -3244,7 +3244,7 @@
         <v>26</v>
       </c>
       <c r="D117" s="2">
-        <v>0.3663684759521857</v>
+        <v>0.4000088959001005</v>
       </c>
       <c r="E117" s="2">
         <v>1996.43952347533</v>
@@ -3268,7 +3268,7 @@
         <v>27</v>
       </c>
       <c r="D118" s="2">
-        <v>0.3761184830218554</v>
+        <v>0.4089547879993916</v>
       </c>
       <c r="E118" s="2">
         <v>2444.065364822865</v>
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="D119" s="2">
-        <v>0.3626101990230381</v>
+        <v>0.4054127489216626</v>
       </c>
       <c r="E119" s="2">
         <v>2381.746515335733</v>
@@ -3316,7 +3316,7 @@
         <v>29</v>
       </c>
       <c r="D120" s="2">
-        <v>0.3620610199868679</v>
+        <v>0.3919300390407443</v>
       </c>
       <c r="E120" s="2">
         <v>2123.649022426198</v>
@@ -3340,7 +3340,7 @@
         <v>30</v>
       </c>
       <c r="D121" s="2">
-        <v>0.366483019082807</v>
+        <v>0.4228377011604607</v>
       </c>
       <c r="E121" s="2">
         <v>2318.198043567214</v>
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="2">
-        <v>0.3603976980084553</v>
+        <v>0.388484523864463</v>
       </c>
       <c r="E122" s="2">
         <v>2076.316497045639</v>
@@ -3388,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="2">
-        <v>0.3776968750171363</v>
+        <v>0.4019265158567578</v>
       </c>
       <c r="E123" s="2">
         <v>2637.105224516816</v>
@@ -3412,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="2">
-        <v>0.3679225620580837</v>
+        <v>0.3954553850926459</v>
       </c>
       <c r="E124" s="2">
         <v>1932.816488470707</v>
@@ -3436,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="2">
-        <v>0.3659538839710876</v>
+        <v>0.4883338429499418</v>
       </c>
       <c r="E125" s="2">
         <v>2117.039238512004</v>
@@ -3460,7 +3460,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="2">
-        <v>0.3664099620655179</v>
+        <v>0.4473066399805248</v>
       </c>
       <c r="E126" s="2">
         <v>1877.159737608009</v>
@@ -3484,7 +3484,7 @@
         <v>6</v>
       </c>
       <c r="D127" s="2">
-        <v>0.3740458090323955</v>
+        <v>0.455965826055035</v>
       </c>
       <c r="E127" s="2">
         <v>1880.899116023981</v>
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="D128" s="2">
-        <v>0.379536482039839</v>
+        <v>0.3928319269325584</v>
       </c>
       <c r="E128" s="2">
         <v>2736.651241663402</v>
@@ -3532,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="2">
-        <v>0.3621932339156047</v>
+        <v>0.4636515330057591</v>
       </c>
       <c r="E129" s="2">
         <v>2554.675614551421</v>
@@ -3556,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2">
-        <v>0.3901839780155569</v>
+        <v>0.4358746020589024</v>
       </c>
       <c r="E130" s="2">
         <v>2105.092439492814</v>
@@ -3580,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="2">
-        <v>0.3558113580802456</v>
+        <v>0.4134223209694028</v>
       </c>
       <c r="E131" s="2">
         <v>2570.365951124642</v>
@@ -3604,7 +3604,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="2">
-        <v>0.3695893060648814</v>
+        <v>0.3965723901055753</v>
       </c>
       <c r="E132" s="2">
         <v>2409.85761794789</v>
@@ -3628,7 +3628,7 @@
         <v>12</v>
       </c>
       <c r="D133" s="2">
-        <v>0.368360549909994</v>
+        <v>3.405294975964352</v>
       </c>
       <c r="E133" s="2">
         <v>1934.38381936655</v>
@@ -3652,7 +3652,7 @@
         <v>13</v>
       </c>
       <c r="D134" s="2">
-        <v>0.3702110530575737</v>
+        <v>0.3792916659731418</v>
       </c>
       <c r="E134" s="2">
         <v>1850.504623548576</v>
@@ -3676,7 +3676,7 @@
         <v>14</v>
       </c>
       <c r="D135" s="2">
-        <v>0.3668832220137119</v>
+        <v>0.4057391982059926</v>
       </c>
       <c r="E135" s="2">
         <v>1722.693213533703</v>
@@ -3700,7 +3700,7 @@
         <v>15</v>
       </c>
       <c r="D136" s="2">
-        <v>0.3692525209626183</v>
+        <v>0.3902074219658971</v>
       </c>
       <c r="E136" s="2">
         <v>1645.909019480519</v>
@@ -3724,7 +3724,7 @@
         <v>16</v>
       </c>
       <c r="D137" s="2">
-        <v>0.368166385916993</v>
+        <v>0.4036163769196719</v>
       </c>
       <c r="E137" s="2">
         <v>2377.936871718181</v>
@@ -3748,7 +3748,7 @@
         <v>17</v>
       </c>
       <c r="D138" s="2">
-        <v>0.3627257209736854</v>
+        <v>0.4086839358787984</v>
       </c>
       <c r="E138" s="2">
         <v>1987.889713887698</v>
@@ -3772,7 +3772,7 @@
         <v>18</v>
       </c>
       <c r="D139" s="2">
-        <v>0.3568892519688234</v>
+        <v>0.4077235888689756</v>
       </c>
       <c r="E139" s="2">
         <v>2174.201807454974</v>
@@ -3796,7 +3796,7 @@
         <v>19</v>
       </c>
       <c r="D140" s="2">
-        <v>0.3716733659384772</v>
+        <v>0.4625271251425147</v>
       </c>
       <c r="E140" s="2">
         <v>1792.325560238323</v>
@@ -3820,7 +3820,7 @@
         <v>20</v>
       </c>
       <c r="D141" s="2">
-        <v>0.3635410730494186</v>
+        <v>0.4143962177913636</v>
       </c>
       <c r="E141" s="2">
         <v>2137.947358172481</v>
@@ -3844,7 +3844,7 @@
         <v>21</v>
       </c>
       <c r="D142" s="2">
-        <v>0.3607202349230647</v>
+        <v>0.4155067279934883</v>
       </c>
       <c r="E142" s="2">
         <v>2387.941141580944</v>
@@ -3868,7 +3868,7 @@
         <v>22</v>
       </c>
       <c r="D143" s="2">
-        <v>0.3595169020118192</v>
+        <v>0.4457113470416516</v>
       </c>
       <c r="E143" s="2">
         <v>2425.501270226095</v>
@@ -3892,7 +3892,7 @@
         <v>23</v>
       </c>
       <c r="D144" s="2">
-        <v>0.3654888659948483</v>
+        <v>0.4264866700395942</v>
       </c>
       <c r="E144" s="2">
         <v>2241.764530155729</v>
@@ -3916,7 +3916,7 @@
         <v>24</v>
       </c>
       <c r="D145" s="2">
-        <v>0.3623779689660296</v>
+        <v>0.407107220031321</v>
       </c>
       <c r="E145" s="2">
         <v>2350.55363672152</v>
@@ -3940,7 +3940,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2">
-        <v>0.3715669249650091</v>
+        <v>0.3923641159199178</v>
       </c>
       <c r="E146" s="2">
         <v>2391.948266752823</v>
@@ -3964,7 +3964,7 @@
         <v>26</v>
       </c>
       <c r="D147" s="2">
-        <v>0.3690286030760035</v>
+        <v>0.4424116651061922</v>
       </c>
       <c r="E147" s="2">
         <v>1959.570186195937</v>
@@ -3988,7 +3988,7 @@
         <v>27</v>
       </c>
       <c r="D148" s="2">
-        <v>0.3626639780122787</v>
+        <v>0.4241390239913017</v>
       </c>
       <c r="E148" s="2">
         <v>2144.407151098665</v>
@@ -4012,7 +4012,7 @@
         <v>28</v>
       </c>
       <c r="D149" s="2">
-        <v>0.3597222419921309</v>
+        <v>0.4437053038273007</v>
       </c>
       <c r="E149" s="2">
         <v>2163.008743013525</v>
@@ -4036,7 +4036,7 @@
         <v>29</v>
       </c>
       <c r="D150" s="2">
-        <v>0.367291665985249</v>
+        <v>0.4046383260283619</v>
       </c>
       <c r="E150" s="2">
         <v>2072.340714304084</v>
@@ -4060,7 +4060,7 @@
         <v>30</v>
       </c>
       <c r="D151" s="2">
-        <v>0.3654430499300361</v>
+        <v>0.4198942908551544</v>
       </c>
       <c r="E151" s="2">
         <v>1799.972058205954</v>
@@ -4084,7 +4084,7 @@
         <v>31</v>
       </c>
       <c r="D152" s="2">
-        <v>0.3897307639708742</v>
+        <v>0.3996018490288407</v>
       </c>
       <c r="E152" s="2">
         <v>2159.411837019392</v>
@@ -4108,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="2">
-        <v>0.3889326620846987</v>
+        <v>0.4265322778373957</v>
       </c>
       <c r="E153" s="2">
         <v>2196.282651656764</v>
@@ -4132,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="D154" s="2">
-        <v>0.3949026711052284</v>
+        <v>0.3852207420859486</v>
       </c>
       <c r="E154" s="2">
         <v>2385.07436963694</v>
@@ -4156,7 +4156,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="2">
-        <v>0.4225364460144192</v>
+        <v>0.3961550069507211</v>
       </c>
       <c r="E155" s="2">
         <v>2457.771117190254</v>
@@ -4180,7 +4180,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="2">
-        <v>0.3584785390412435</v>
+        <v>0.4009102249983698</v>
       </c>
       <c r="E156" s="2">
         <v>2206.876930859468</v>
@@ -4204,7 +4204,7 @@
         <v>5</v>
       </c>
       <c r="D157" s="2">
-        <v>0.3647549520246685</v>
+        <v>0.4098534630611539</v>
       </c>
       <c r="E157" s="2">
         <v>2436.457284345337</v>
@@ -4228,7 +4228,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="2">
-        <v>0.374559995951131</v>
+        <v>0.394981357967481</v>
       </c>
       <c r="E158" s="2">
         <v>2137.46344823318</v>
@@ -4252,7 +4252,7 @@
         <v>7</v>
       </c>
       <c r="D159" s="2">
-        <v>0.364869705052115</v>
+        <v>0.4145718039944768</v>
       </c>
       <c r="E159" s="2">
         <v>1972.499336598052</v>
@@ -4276,7 +4276,7 @@
         <v>8</v>
       </c>
       <c r="D160" s="2">
-        <v>0.38006596500054</v>
+        <v>0.4335949129890651</v>
       </c>
       <c r="E160" s="2">
         <v>1705.502565319909</v>
@@ -4300,7 +4300,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2">
-        <v>0.3523145749932155</v>
+        <v>0.3996454309672117</v>
       </c>
       <c r="E161" s="2">
         <v>1520.384695761918</v>
@@ -4324,7 +4324,7 @@
         <v>10</v>
       </c>
       <c r="D162" s="2">
-        <v>0.4154942000750452</v>
+        <v>0.3996830768883228</v>
       </c>
       <c r="E162" s="2">
         <v>2160.627030422104</v>
@@ -4348,7 +4348,7 @@
         <v>11</v>
       </c>
       <c r="D163" s="2">
-        <v>0.3617671179817989</v>
+        <v>0.3998288388829678</v>
       </c>
       <c r="E163" s="2">
         <v>1762.466503610988</v>
@@ -4372,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="D164" s="2">
-        <v>0.4232663089642301</v>
+        <v>0.417297791922465</v>
       </c>
       <c r="E164" s="2">
         <v>2095.111235755412</v>
@@ -4396,7 +4396,7 @@
         <v>13</v>
       </c>
       <c r="D165" s="2">
-        <v>0.3599751449655741</v>
+        <v>0.4100620159879327</v>
       </c>
       <c r="E165" s="2">
         <v>2324.254658553122</v>
@@ -4420,7 +4420,7 @@
         <v>14</v>
       </c>
       <c r="D166" s="2">
-        <v>0.3577235310804099</v>
+        <v>0.3947633760981262</v>
       </c>
       <c r="E166" s="2">
         <v>2057.685242986978</v>
@@ -4444,7 +4444,7 @@
         <v>15</v>
       </c>
       <c r="D167" s="2">
-        <v>0.3596422009868547</v>
+        <v>0.397452836856246</v>
       </c>
       <c r="E167" s="2">
         <v>2464.826064673589</v>
@@ -4468,7 +4468,7 @@
         <v>16</v>
       </c>
       <c r="D168" s="2">
-        <v>0.3602590579539537</v>
+        <v>0.3935926621779799</v>
       </c>
       <c r="E168" s="2">
         <v>2110.779571279063</v>
@@ -4492,7 +4492,7 @@
         <v>17</v>
       </c>
       <c r="D169" s="2">
-        <v>0.3621349140303209</v>
+        <v>0.3947312489617616</v>
       </c>
       <c r="E169" s="2">
         <v>2505.910600184307</v>
@@ -4516,7 +4516,7 @@
         <v>18</v>
       </c>
       <c r="D170" s="2">
-        <v>0.3673129680100828</v>
+        <v>0.4098742769565433</v>
       </c>
       <c r="E170" s="2">
         <v>1647.533158928937</v>
@@ -4540,7 +4540,7 @@
         <v>19</v>
       </c>
       <c r="D171" s="2">
-        <v>0.3734464109875262</v>
+        <v>0.3875063681043684</v>
       </c>
       <c r="E171" s="2">
         <v>1974.428105712782</v>
@@ -4564,7 +4564,7 @@
         <v>20</v>
       </c>
       <c r="D172" s="2">
-        <v>0.369853593991138</v>
+        <v>0.3915907400660217</v>
       </c>
       <c r="E172" s="2">
         <v>2513.991454597157</v>
@@ -4588,7 +4588,7 @@
         <v>21</v>
       </c>
       <c r="D173" s="2">
-        <v>0.3675965319853276</v>
+        <v>0.4006413279566914</v>
       </c>
       <c r="E173" s="2">
         <v>1780.737717395451</v>
@@ -4612,7 +4612,7 @@
         <v>22</v>
       </c>
       <c r="D174" s="2">
-        <v>0.3726131790317595</v>
+        <v>0.3941926860716194</v>
       </c>
       <c r="E174" s="2">
         <v>2255.58748646679</v>
@@ -4636,7 +4636,7 @@
         <v>23</v>
       </c>
       <c r="D175" s="2">
-        <v>0.3694175609853119</v>
+        <v>0.4283651080913842</v>
       </c>
       <c r="E175" s="2">
         <v>2538.307473397972</v>
@@ -4660,7 +4660,7 @@
         <v>24</v>
       </c>
       <c r="D176" s="2">
-        <v>0.3591840279987082</v>
+        <v>0.3965690380427986</v>
       </c>
       <c r="E176" s="2">
         <v>2087.974854691427</v>
@@ -4684,7 +4684,7 @@
         <v>25</v>
       </c>
       <c r="D177" s="2">
-        <v>0.3951048679882661</v>
+        <v>0.4207136242184788</v>
       </c>
       <c r="E177" s="2">
         <v>2127.990181402628</v>
@@ -4708,7 +4708,7 @@
         <v>26</v>
       </c>
       <c r="D178" s="2">
-        <v>0.3691187010845169</v>
+        <v>0.4070559558458626</v>
       </c>
       <c r="E178" s="2">
         <v>2134.647587018293</v>
@@ -4732,7 +4732,7 @@
         <v>27</v>
       </c>
       <c r="D179" s="2">
-        <v>0.3725424280855805</v>
+        <v>0.4018443110398948</v>
       </c>
       <c r="E179" s="2">
         <v>2337.026321713145</v>
@@ -4756,7 +4756,7 @@
         <v>28</v>
       </c>
       <c r="D180" s="2">
-        <v>0.3613733410602435</v>
+        <v>0.429121162975207</v>
       </c>
       <c r="E180" s="2">
         <v>2200.329760590347</v>
@@ -4780,7 +4780,7 @@
         <v>29</v>
       </c>
       <c r="D181" s="2">
-        <v>0.3590812180191278</v>
+        <v>0.4069383388850838</v>
       </c>
       <c r="E181" s="2">
         <v>2431.022020553433</v>
@@ -4804,7 +4804,7 @@
         <v>30</v>
       </c>
       <c r="D182" s="2">
-        <v>0.3621163350762799</v>
+        <v>0.3877175729721785</v>
       </c>
       <c r="E182" s="2">
         <v>2294.756854658639</v>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="2">
-        <v>0.3652505610371009</v>
+        <v>0.3934411709196866</v>
       </c>
       <c r="E183" s="2">
         <v>1879.802659042441</v>
@@ -4852,7 +4852,7 @@
         <v>2</v>
       </c>
       <c r="D184" s="2">
-        <v>0.3730612950166687</v>
+        <v>0.4021449859719723</v>
       </c>
       <c r="E184" s="2">
         <v>2134.399461723991</v>
@@ -4876,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="D185" s="2">
-        <v>0.3613404440693557</v>
+        <v>0.4084512870758772</v>
       </c>
       <c r="E185" s="2">
         <v>2369.15855112158</v>
@@ -4900,7 +4900,7 @@
         <v>4</v>
       </c>
       <c r="D186" s="2">
-        <v>0.362498169997707</v>
+        <v>0.38717174786143</v>
       </c>
       <c r="E186" s="2">
         <v>2201.091230166294</v>
@@ -4924,7 +4924,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="2">
-        <v>0.36395021493081</v>
+        <v>0.4101860579103231</v>
       </c>
       <c r="E187" s="2">
         <v>2123.412352935886</v>
@@ -4948,7 +4948,7 @@
         <v>6</v>
       </c>
       <c r="D188" s="2">
-        <v>0.3602439020760357</v>
+        <v>0.3904726868495345</v>
       </c>
       <c r="E188" s="2">
         <v>1862.349367521303</v>
@@ -4972,7 +4972,7 @@
         <v>7</v>
       </c>
       <c r="D189" s="2">
-        <v>0.3692918430315331</v>
+        <v>0.3971729050390422</v>
       </c>
       <c r="E189" s="2">
         <v>1903.874646814641</v>
@@ -4996,7 +4996,7 @@
         <v>8</v>
       </c>
       <c r="D190" s="2">
-        <v>0.4000582359731197</v>
+        <v>0.4239758001640439</v>
       </c>
       <c r="E190" s="2">
         <v>1550.682658295898</v>
@@ -5020,7 +5020,7 @@
         <v>9</v>
       </c>
       <c r="D191" s="2">
-        <v>0.3730527039151639</v>
+        <v>0.4052690819371492</v>
       </c>
       <c r="E191" s="2">
         <v>2314.796501523785</v>
@@ -5044,7 +5044,7 @@
         <v>10</v>
       </c>
       <c r="D192" s="2">
-        <v>0.3629001890076324</v>
+        <v>0.4192661189008504</v>
       </c>
       <c r="E192" s="2">
         <v>2147.28958296368</v>
@@ -5068,7 +5068,7 @@
         <v>11</v>
       </c>
       <c r="D193" s="2">
-        <v>0.3679488229099661</v>
+        <v>0.4217746851500124</v>
       </c>
       <c r="E193" s="2">
         <v>2346.301850815037</v>
@@ -5092,7 +5092,7 @@
         <v>12</v>
       </c>
       <c r="D194" s="2">
-        <v>0.3641887310659513</v>
+        <v>0.4121930068358779</v>
       </c>
       <c r="E194" s="2">
         <v>2330.275608498885</v>
@@ -5116,7 +5116,7 @@
         <v>13</v>
       </c>
       <c r="D195" s="2">
-        <v>0.3600435919361189</v>
+        <v>0.3958374289795756</v>
       </c>
       <c r="E195" s="2">
         <v>2281.674013900621</v>
@@ -5140,7 +5140,7 @@
         <v>14</v>
       </c>
       <c r="D196" s="2">
-        <v>0.3616501309443265</v>
+        <v>0.4122986120637506</v>
       </c>
       <c r="E196" s="2">
         <v>2142.05919041707</v>
@@ -5164,7 +5164,7 @@
         <v>15</v>
       </c>
       <c r="D197" s="2">
-        <v>0.3687060660449788</v>
+        <v>0.3887079530395567</v>
       </c>
       <c r="E197" s="2">
         <v>2154.851187413765</v>
@@ -5188,7 +5188,7 @@
         <v>16</v>
       </c>
       <c r="D198" s="2">
-        <v>0.3689376669935882</v>
+        <v>0.3939790360163897</v>
       </c>
       <c r="E198" s="2">
         <v>1827.555546047547</v>
@@ -5212,7 +5212,7 @@
         <v>17</v>
       </c>
       <c r="D199" s="2">
-        <v>0.3555136849172413</v>
+        <v>0.3967611079569906</v>
       </c>
       <c r="E199" s="2">
         <v>2364.207375170694</v>
@@ -5236,7 +5236,7 @@
         <v>18</v>
       </c>
       <c r="D200" s="2">
-        <v>0.3913439380703494</v>
+        <v>0.4225007069762796</v>
       </c>
       <c r="E200" s="2">
         <v>2656.026767061549</v>
@@ -5260,7 +5260,7 @@
         <v>19</v>
       </c>
       <c r="D201" s="2">
-        <v>0.3844119040295482</v>
+        <v>0.3999624501448125</v>
       </c>
       <c r="E201" s="2">
         <v>1871.5725112719</v>
@@ -5284,7 +5284,7 @@
         <v>20</v>
       </c>
       <c r="D202" s="2">
-        <v>0.3597312510246411</v>
+        <v>0.3835294840391725</v>
       </c>
       <c r="E202" s="2">
         <v>1949.670656151689</v>
@@ -5308,7 +5308,7 @@
         <v>21</v>
       </c>
       <c r="D203" s="2">
-        <v>0.3949361259583384</v>
+        <v>0.3983789610210806</v>
       </c>
       <c r="E203" s="2">
         <v>1846.004003310091</v>
@@ -5332,7 +5332,7 @@
         <v>22</v>
       </c>
       <c r="D204" s="2">
-        <v>0.3666117389220744</v>
+        <v>0.3938081979285926</v>
       </c>
       <c r="E204" s="2">
         <v>1700.471375710124</v>
@@ -5356,7 +5356,7 @@
         <v>23</v>
       </c>
       <c r="D205" s="2">
-        <v>0.3746938148979098</v>
+        <v>0.3912717651110142</v>
       </c>
       <c r="E205" s="2">
         <v>2429.157421160867</v>
@@ -5380,7 +5380,7 @@
         <v>24</v>
       </c>
       <c r="D206" s="2">
-        <v>0.3624967730138451</v>
+        <v>0.3765274728648365</v>
       </c>
       <c r="E206" s="2">
         <v>2124.84529359882</v>
@@ -5404,7 +5404,7 @@
         <v>25</v>
       </c>
       <c r="D207" s="2">
-        <v>0.3642679329495877</v>
+        <v>0.3989412691444159</v>
       </c>
       <c r="E207" s="2">
         <v>2012.261269172223</v>
@@ -5428,7 +5428,7 @@
         <v>26</v>
       </c>
       <c r="D208" s="2">
-        <v>0.3601373210549355</v>
+        <v>0.3905642512254417</v>
       </c>
       <c r="E208" s="2">
         <v>1790.895983535587</v>
@@ -5452,7 +5452,7 @@
         <v>27</v>
       </c>
       <c r="D209" s="2">
-        <v>1.117585935047828</v>
+        <v>0.4098879660014063</v>
       </c>
       <c r="E209" s="2">
         <v>1920.719001820786</v>
@@ -5476,7 +5476,7 @@
         <v>28</v>
       </c>
       <c r="D210" s="2">
-        <v>0.366635555983521</v>
+        <v>0.3893656691070646</v>
       </c>
       <c r="E210" s="2">
         <v>2608.829716344009</v>
@@ -5500,7 +5500,7 @@
         <v>29</v>
       </c>
       <c r="D211" s="2">
-        <v>0.3659516489133239</v>
+        <v>0.4287095069885254</v>
       </c>
       <c r="E211" s="2">
         <v>2182.404121155074</v>
@@ -5524,7 +5524,7 @@
         <v>30</v>
       </c>
       <c r="D212" s="2">
-        <v>0.3588711990742013</v>
+        <v>0.4004725869745016</v>
       </c>
       <c r="E212" s="2">
         <v>2386.18139303373</v>
@@ -5548,7 +5548,7 @@
         <v>31</v>
       </c>
       <c r="D213" s="2">
-        <v>0.3716811880003661</v>
+        <v>0.4029320520348847</v>
       </c>
       <c r="E213" s="2">
         <v>2058.593491977226</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="2">
-        <v>0.3735820470610633</v>
+        <v>0.3961215510498732</v>
       </c>
       <c r="E214" s="2">
         <v>2179.389073061387</v>
@@ -5596,7 +5596,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="2">
-        <v>0.3698829979402944</v>
+        <v>0.3802139479666948</v>
       </c>
       <c r="E215" s="2">
         <v>2282.683308507831</v>
@@ -5620,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="2">
-        <v>0.3642235120059922</v>
+        <v>0.3894950191024691</v>
       </c>
       <c r="E216" s="2">
         <v>2284.914482011154</v>
@@ -5644,7 +5644,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="2">
-        <v>0.3730385249946266</v>
+        <v>0.4011775159742683</v>
       </c>
       <c r="E217" s="2">
         <v>2316.092677750742</v>
@@ -5668,7 +5668,7 @@
         <v>5</v>
       </c>
       <c r="D218" s="2">
-        <v>0.370637726970017</v>
+        <v>0.4041690491139889</v>
       </c>
       <c r="E218" s="2">
         <v>2443.696214528953</v>
@@ -5692,7 +5692,7 @@
         <v>6</v>
       </c>
       <c r="D219" s="2">
-        <v>0.3639928200282156</v>
+        <v>0.3891138141043484</v>
       </c>
       <c r="E219" s="2">
         <v>2214.382170322355</v>
@@ -5716,7 +5716,7 @@
         <v>7</v>
       </c>
       <c r="D220" s="2">
-        <v>0.385967179085128</v>
+        <v>0.3949919750448316</v>
       </c>
       <c r="E220" s="2">
         <v>2032.18984196933</v>
@@ -5740,7 +5740,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="2">
-        <v>0.3763115300098434</v>
+        <v>0.3972372999414802</v>
       </c>
       <c r="E221" s="2">
         <v>1815.785994386207</v>
@@ -5764,7 +5764,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="2">
-        <v>0.3583971010521054</v>
+        <v>0.4090960118919611</v>
       </c>
       <c r="E222" s="2">
         <v>1666.365689989193</v>
@@ -5788,7 +5788,7 @@
         <v>10</v>
       </c>
       <c r="D223" s="2">
-        <v>0.3659297180129215</v>
+        <v>0.4074988330248743</v>
       </c>
       <c r="E223" s="2">
         <v>2611.700374025417</v>
@@ -5812,7 +5812,7 @@
         <v>11</v>
       </c>
       <c r="D224" s="2">
-        <v>0.3833381310105324</v>
+        <v>0.3972685900516808</v>
       </c>
       <c r="E224" s="2">
         <v>2519.408808503995</v>
@@ -5836,7 +5836,7 @@
         <v>12</v>
       </c>
       <c r="D225" s="2">
-        <v>0.3558719110442325</v>
+        <v>0.3649774000514299</v>
       </c>
       <c r="E225" s="2">
         <v>2278.625222814863</v>
@@ -5860,7 +5860,7 @@
         <v>13</v>
       </c>
       <c r="D226" s="2">
-        <v>0.3614121039863676</v>
+        <v>0.387300887843594</v>
       </c>
       <c r="E226" s="2">
         <v>2644.608815788594</v>
@@ -5884,7 +5884,7 @@
         <v>14</v>
       </c>
       <c r="D227" s="2">
-        <v>0.3592778270831332</v>
+        <v>0.4086807928979397</v>
       </c>
       <c r="E227" s="2">
         <v>1712.162199308163</v>
@@ -5908,7 +5908,7 @@
         <v>15</v>
       </c>
       <c r="D228" s="2">
-        <v>0.3634007560322061</v>
+        <v>0.4164245410356671</v>
       </c>
       <c r="E228" s="2">
         <v>1779.929572513537</v>
@@ -5932,7 +5932,7 @@
         <v>16</v>
       </c>
       <c r="D229" s="2">
-        <v>0.3651802280219272</v>
+        <v>0.3992237860802561</v>
       </c>
       <c r="E229" s="2">
         <v>1819.632828518819</v>
@@ -5956,7 +5956,7 @@
         <v>17</v>
       </c>
       <c r="D230" s="2">
-        <v>0.3645480050472543</v>
+        <v>0.4158868859522045</v>
       </c>
       <c r="E230" s="2">
         <v>2535.381656937598</v>
@@ -5980,7 +5980,7 @@
         <v>18</v>
       </c>
       <c r="D231" s="2">
-        <v>0.3687164019793272</v>
+        <v>0.3960354349110276</v>
       </c>
       <c r="E231" s="2">
         <v>2204.477399209422</v>
@@ -6004,7 +6004,7 @@
         <v>19</v>
       </c>
       <c r="D232" s="2">
-        <v>0.362577790976502</v>
+        <v>0.4015070369932801</v>
       </c>
       <c r="E232" s="2">
         <v>1836.120126813968</v>
@@ -6028,7 +6028,7 @@
         <v>20</v>
       </c>
       <c r="D233" s="2">
-        <v>0.3633890229975805</v>
+        <v>0.3914323351345956</v>
       </c>
       <c r="E233" s="2">
         <v>2293.287501067519</v>
@@ -6052,7 +6052,7 @@
         <v>21</v>
       </c>
       <c r="D234" s="2">
-        <v>0.3573412080295384</v>
+        <v>0.4036494828760624</v>
       </c>
       <c r="E234" s="2">
         <v>2310.806081073111</v>
@@ -6076,7 +6076,7 @@
         <v>22</v>
       </c>
       <c r="D235" s="2">
-        <v>0.3699172909837216</v>
+        <v>0.3989396630786359</v>
       </c>
       <c r="E235" s="2">
         <v>2546.014669910184</v>
@@ -6100,7 +6100,7 @@
         <v>23</v>
       </c>
       <c r="D236" s="2">
-        <v>0.3778404730837792</v>
+        <v>0.3960123860742897</v>
       </c>
       <c r="E236" s="2">
         <v>2470.904710041427</v>
@@ -6124,7 +6124,7 @@
         <v>24</v>
       </c>
       <c r="D237" s="2">
-        <v>0.3648598560830578</v>
+        <v>0.4087389018386602</v>
       </c>
       <c r="E237" s="2">
         <v>2017.228708030255</v>
@@ -6148,7 +6148,7 @@
         <v>25</v>
       </c>
       <c r="D238" s="2">
-        <v>0.3706870360765606</v>
+        <v>0.4312418189365417</v>
       </c>
       <c r="E238" s="2">
         <v>1711.985564225213</v>
@@ -6172,7 +6172,7 @@
         <v>26</v>
       </c>
       <c r="D239" s="2">
-        <v>0.3604562960099429</v>
+        <v>0.4044175511226058</v>
       </c>
       <c r="E239" s="2">
         <v>2266.342076156299</v>
@@ -6196,7 +6196,7 @@
         <v>27</v>
       </c>
       <c r="D240" s="2">
-        <v>0.3868235989939421</v>
+        <v>0.4130499858874828</v>
       </c>
       <c r="E240" s="2">
         <v>2583.244586784071</v>
@@ -6220,7 +6220,7 @@
         <v>28</v>
       </c>
       <c r="D241" s="2">
-        <v>0.4125981399556622</v>
+        <v>0.3930361489765346</v>
       </c>
       <c r="E241" s="2">
         <v>2313.875495316014</v>
@@ -6244,7 +6244,7 @@
         <v>29</v>
       </c>
       <c r="D242" s="2">
-        <v>0.3870162260718644</v>
+        <v>0.3973199250176549</v>
       </c>
       <c r="E242" s="2">
         <v>2360.045776833543</v>
@@ -6268,7 +6268,7 @@
         <v>30</v>
       </c>
       <c r="D243" s="2">
-        <v>0.3518999139778316</v>
+        <v>0.4102915909606963</v>
       </c>
       <c r="E243" s="2">
         <v>2186.202086518578</v>
@@ -6292,7 +6292,7 @@
         <v>31</v>
       </c>
       <c r="D244" s="2">
-        <v>0.3678671760717407</v>
+        <v>0.4026442267931998</v>
       </c>
       <c r="E244" s="2">
         <v>2245.4597768131</v>
@@ -6316,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="D245" s="2">
-        <v>0.3693877370096743</v>
+        <v>0.3865282798651606</v>
       </c>
       <c r="E245" s="2">
         <v>2887.107827908604</v>
@@ -6340,7 +6340,7 @@
         <v>2</v>
       </c>
       <c r="D246" s="2">
-        <v>0.3646083500934765</v>
+        <v>0.4276221850886941</v>
       </c>
       <c r="E246" s="2">
         <v>2013.835153074206</v>
@@ -6364,7 +6364,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="2">
-        <v>0.371262546046637</v>
+        <v>0.3998165470547974</v>
       </c>
       <c r="E247" s="2">
         <v>2406.895924405408</v>
@@ -6388,7 +6388,7 @@
         <v>4</v>
       </c>
       <c r="D248" s="2">
-        <v>0.3627734229667112</v>
+        <v>0.4039442229550332</v>
       </c>
       <c r="E248" s="2">
         <v>2394.214099020252</v>
@@ -6412,7 +6412,7 @@
         <v>5</v>
       </c>
       <c r="D249" s="2">
-        <v>0.3910674260696396</v>
+        <v>0.4102748280856758</v>
       </c>
       <c r="E249" s="2">
         <v>2591.284879766415</v>
@@ -6436,7 +6436,7 @@
         <v>6</v>
       </c>
       <c r="D250" s="2">
-        <v>0.3767578990664333</v>
+        <v>0.4380280841141939</v>
       </c>
       <c r="E250" s="2">
         <v>1786.793949664671</v>
@@ -6460,7 +6460,7 @@
         <v>7</v>
       </c>
       <c r="D251" s="2">
-        <v>0.4056666659889743</v>
+        <v>0.4123922020662576</v>
       </c>
       <c r="E251" s="2">
         <v>2547.822082559145</v>
@@ -6484,7 +6484,7 @@
         <v>8</v>
       </c>
       <c r="D252" s="2">
-        <v>0.3819937839871272</v>
+        <v>0.4375303089618683</v>
       </c>
       <c r="E252" s="2">
         <v>2334.63010603704</v>
@@ -6508,7 +6508,7 @@
         <v>9</v>
       </c>
       <c r="D253" s="2">
-        <v>0.3591116690076888</v>
+        <v>0.3828591969795525</v>
       </c>
       <c r="E253" s="2">
         <v>1800.364545545586</v>
@@ -6532,7 +6532,7 @@
         <v>10</v>
       </c>
       <c r="D254" s="2">
-        <v>0.3705589430173859</v>
+        <v>0.3913804420735687</v>
       </c>
       <c r="E254" s="2">
         <v>1356.403336857777</v>
@@ -6556,7 +6556,7 @@
         <v>11</v>
       </c>
       <c r="D255" s="2">
-        <v>0.3627929789945483</v>
+        <v>0.4000401159282774</v>
       </c>
       <c r="E255" s="2">
         <v>2039.585725477654</v>
@@ -6580,7 +6580,7 @@
         <v>12</v>
       </c>
       <c r="D256" s="2">
-        <v>0.3853971159551293</v>
+        <v>0.3894764401484281</v>
       </c>
       <c r="E256" s="2">
         <v>2340.70951623293</v>
@@ -6604,7 +6604,7 @@
         <v>13</v>
       </c>
       <c r="D257" s="2">
-        <v>0.3807340170023963</v>
+        <v>0.3866266901604831</v>
       </c>
       <c r="E257" s="2">
         <v>1916.751607545592</v>
@@ -6628,7 +6628,7 @@
         <v>14</v>
       </c>
       <c r="D258" s="2">
-        <v>0.3598360859323293</v>
+        <v>0.4282211610116065</v>
       </c>
       <c r="E258" s="2">
         <v>1905.224578206205</v>
@@ -6652,7 +6652,7 @@
         <v>15</v>
       </c>
       <c r="D259" s="2">
-        <v>0.3606348859611899</v>
+        <v>0.3994290558621287</v>
       </c>
       <c r="E259" s="2">
         <v>1756.007477462088</v>
@@ -6676,7 +6676,7 @@
         <v>16</v>
       </c>
       <c r="D260" s="2">
-        <v>0.3622777429409325</v>
+        <v>0.4229032839648426</v>
       </c>
       <c r="E260" s="2">
         <v>2271.327177602541</v>
@@ -6700,7 +6700,7 @@
         <v>17</v>
       </c>
       <c r="D261" s="2">
-        <v>0.3835983680328354</v>
+        <v>0.3994869559537619</v>
       </c>
       <c r="E261" s="2">
         <v>2137.867484809065</v>
@@ -6724,7 +6724,7 @@
         <v>18</v>
       </c>
       <c r="D262" s="2">
-        <v>0.3880661129951477</v>
+        <v>0.3868948190938681</v>
       </c>
       <c r="E262" s="2">
         <v>1874.000301052681</v>
@@ -6748,7 +6748,7 @@
         <v>19</v>
       </c>
       <c r="D263" s="2">
-        <v>0.3708120549563318</v>
+        <v>0.3954551059287041</v>
       </c>
       <c r="E263" s="2">
         <v>1936.641943992453</v>
@@ -6772,7 +6772,7 @@
         <v>20</v>
       </c>
       <c r="D264" s="2">
-        <v>0.3568112360080704</v>
+        <v>0.4074101320002228</v>
       </c>
       <c r="E264" s="2">
         <v>1661.106237777533</v>
@@ -6796,7 +6796,7 @@
         <v>21</v>
       </c>
       <c r="D265" s="2">
-        <v>0.363320087082684</v>
+        <v>0.40043906099163</v>
       </c>
       <c r="E265" s="2">
         <v>2058.297166045912</v>
@@ -6820,7 +6820,7 @@
         <v>22</v>
       </c>
       <c r="D266" s="2">
-        <v>0.3639579679584131</v>
+        <v>0.3920633709058166</v>
       </c>
       <c r="E266" s="2">
         <v>2517.582538207953</v>
@@ -6844,7 +6844,7 @@
         <v>23</v>
       </c>
       <c r="D267" s="2">
-        <v>0.3752429949818179</v>
+        <v>0.4030440801288933</v>
       </c>
       <c r="E267" s="2">
         <v>1756.548310997544</v>
@@ -6868,7 +6868,7 @@
         <v>24</v>
       </c>
       <c r="D268" s="2">
-        <v>0.3646454360568896</v>
+        <v>0.3854130210820585</v>
       </c>
       <c r="E268" s="2">
         <v>2504.314441513868</v>
@@ -6892,7 +6892,7 @@
         <v>25</v>
       </c>
       <c r="D269" s="2">
-        <v>0.3830327750183642</v>
+        <v>0.4083276640158147</v>
       </c>
       <c r="E269" s="2">
         <v>1913.677933301946</v>
@@ -6916,7 +6916,7 @@
         <v>26</v>
       </c>
       <c r="D270" s="2">
-        <v>0.3710315730422735</v>
+        <v>0.4135296707972884</v>
       </c>
       <c r="E270" s="2">
         <v>1849.163631989038</v>
@@ -6940,7 +6940,7 @@
         <v>27</v>
       </c>
       <c r="D271" s="2">
-        <v>0.365147819975391</v>
+        <v>0.4145921289455146</v>
       </c>
       <c r="E271" s="2">
         <v>2148.065827749961</v>
@@ -6964,7 +6964,7 @@
         <v>28</v>
       </c>
       <c r="D272" s="2">
-        <v>0.3554363670991734</v>
+        <v>0.4220685160253197</v>
       </c>
       <c r="E272" s="2">
         <v>2468.356661599367</v>
@@ -6988,7 +6988,7 @@
         <v>29</v>
       </c>
       <c r="D273" s="2">
-        <v>0.3648623710032552</v>
+        <v>0.4237745809368789</v>
       </c>
       <c r="E273" s="2">
         <v>2531.59524849935</v>
@@ -7012,7 +7012,7 @@
         <v>30</v>
       </c>
       <c r="D274" s="2">
-        <v>0.3629404179519042</v>
+        <v>0.3939201571047306</v>
       </c>
       <c r="E274" s="2">
         <v>2464.65609890334</v>
@@ -7036,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="D275" s="2">
-        <v>0.3660434930352494</v>
+        <v>0.4155524058733135</v>
       </c>
       <c r="E275" s="2">
         <v>1745.773051017158</v>
@@ -7060,7 +7060,7 @@
         <v>2</v>
       </c>
       <c r="D276" s="2">
-        <v>0.3650618430692703</v>
+        <v>0.4027471069712192</v>
       </c>
       <c r="E276" s="2">
         <v>2246.5846782403</v>
@@ -7084,7 +7084,7 @@
         <v>3</v>
       </c>
       <c r="D277" s="2">
-        <v>0.3905594550305977</v>
+        <v>0.405547897098586</v>
       </c>
       <c r="E277" s="2">
         <v>2325.84333953781</v>
@@ -7108,7 +7108,7 @@
         <v>4</v>
       </c>
       <c r="D278" s="2">
-        <v>0.3602734450250864</v>
+        <v>0.3967077471315861</v>
       </c>
       <c r="E278" s="2">
         <v>1926.783785231637</v>
@@ -7132,7 +7132,7 @@
         <v>5</v>
       </c>
       <c r="D279" s="2">
-        <v>0.3614895599894226</v>
+        <v>0.3979209270328283</v>
       </c>
       <c r="E279" s="2">
         <v>1937.615442270605</v>
@@ -7156,7 +7156,7 @@
         <v>6</v>
       </c>
       <c r="D280" s="2">
-        <v>0.3828087170841172</v>
+        <v>0.4784010641742498</v>
       </c>
       <c r="E280" s="2">
         <v>2610.80447379722</v>
@@ -7180,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="D281" s="2">
-        <v>0.3787035280838609</v>
+        <v>0.6306540991645306</v>
       </c>
       <c r="E281" s="2">
         <v>2355.186850688548</v>
@@ -7204,7 +7204,7 @@
         <v>8</v>
       </c>
       <c r="D282" s="2">
-        <v>0.3680118919583037</v>
+        <v>0.6549411658197641</v>
       </c>
       <c r="E282" s="2">
         <v>2298.833648777947</v>
@@ -7228,7 +7228,7 @@
         <v>9</v>
       </c>
       <c r="D283" s="2">
-        <v>0.3682694740127772</v>
+        <v>0.618643619120121</v>
       </c>
       <c r="E283" s="2">
         <v>2169.154944538893</v>
@@ -7252,7 +7252,7 @@
         <v>10</v>
       </c>
       <c r="D284" s="2">
-        <v>0.3630405040457845</v>
+        <v>0.4986029190476984</v>
       </c>
       <c r="E284" s="2">
         <v>2301.377884614212</v>
@@ -7276,7 +7276,7 @@
         <v>11</v>
       </c>
       <c r="D285" s="2">
-        <v>0.3558212739881128</v>
+        <v>0.4585902618709952</v>
       </c>
       <c r="E285" s="2">
         <v>2125.907481037008</v>
@@ -7300,7 +7300,7 @@
         <v>12</v>
       </c>
       <c r="D286" s="2">
-        <v>0.3610818840097636</v>
+        <v>0.4049725970253348</v>
       </c>
       <c r="E286" s="2">
         <v>2215.168984016766</v>
@@ -7324,7 +7324,7 @@
         <v>13</v>
       </c>
       <c r="D287" s="2">
-        <v>0.378554621944204</v>
+        <v>0.4062125969212502</v>
       </c>
       <c r="E287" s="2">
         <v>2643.624993531228</v>
@@ -7348,7 +7348,7 @@
         <v>14</v>
       </c>
       <c r="D288" s="2">
-        <v>0.3699567529838532</v>
+        <v>0.3988061228301376</v>
       </c>
       <c r="E288" s="2">
         <v>2038.14769899266</v>
@@ -7372,7 +7372,7 @@
         <v>15</v>
       </c>
       <c r="D289" s="2">
-        <v>0.3827603850513697</v>
+        <v>0.4153606861364096</v>
       </c>
       <c r="E289" s="2">
         <v>2072.168445922607</v>
@@ -7396,7 +7396,7 @@
         <v>16</v>
       </c>
       <c r="D290" s="2">
-        <v>0.3688704069936648</v>
+        <v>0.3978732940740883</v>
       </c>
       <c r="E290" s="2">
         <v>2108.126807920568</v>
@@ -7420,7 +7420,7 @@
         <v>17</v>
       </c>
       <c r="D291" s="2">
-        <v>0.3830166410189122</v>
+        <v>0.3999290650244802</v>
       </c>
       <c r="E291" s="2">
         <v>2348.204411172897</v>
@@ -7444,7 +7444,7 @@
         <v>18</v>
       </c>
       <c r="D292" s="2">
-        <v>0.3680178979411721</v>
+        <v>0.3997193949762732</v>
       </c>
       <c r="E292" s="2">
         <v>1954.88074961617</v>
@@ -7468,7 +7468,7 @@
         <v>19</v>
       </c>
       <c r="D293" s="2">
-        <v>0.3687804489163682</v>
+        <v>0.3959493180736899</v>
       </c>
       <c r="E293" s="2">
         <v>2034.093970895244</v>
@@ -7492,7 +7492,7 @@
         <v>20</v>
       </c>
       <c r="D294" s="2">
-        <v>0.3742465369869024</v>
+        <v>0.3964161511976272</v>
       </c>
       <c r="E294" s="2">
         <v>2042.646494310696</v>
@@ -7516,7 +7516,7 @@
         <v>21</v>
       </c>
       <c r="D295" s="2">
-        <v>0.3653428939869627</v>
+        <v>0.402865560958162</v>
       </c>
       <c r="E295" s="2">
         <v>2846.442758210821</v>
@@ -7540,7 +7540,7 @@
         <v>22</v>
       </c>
       <c r="D296" s="2">
-        <v>0.3633982420433313</v>
+        <v>0.4040849569719285</v>
       </c>
       <c r="E296" s="2">
         <v>2796.555371408181</v>
@@ -7564,7 +7564,7 @@
         <v>23</v>
       </c>
       <c r="D297" s="2">
-        <v>0.3619929909473285</v>
+        <v>0.4082741639576852</v>
       </c>
       <c r="E297" s="2">
         <v>2095.085863011488</v>
@@ -7588,7 +7588,7 @@
         <v>24</v>
       </c>
       <c r="D298" s="2">
-        <v>0.3630777299404144</v>
+        <v>0.3791808940004557</v>
       </c>
       <c r="E298" s="2">
         <v>2539.530994316101</v>
@@ -7612,7 +7612,7 @@
         <v>25</v>
       </c>
       <c r="D299" s="2">
-        <v>0.3634645229903981</v>
+        <v>0.4169949518982321</v>
       </c>
       <c r="E299" s="2">
         <v>2344.009541115947</v>
@@ -7636,7 +7636,7 @@
         <v>26</v>
       </c>
       <c r="D300" s="2">
-        <v>0.3847410749876872</v>
+        <v>0.4225635658949614</v>
       </c>
       <c r="E300" s="2">
         <v>2886.528429249402</v>
@@ -7660,7 +7660,7 @@
         <v>27</v>
       </c>
       <c r="D301" s="2">
-        <v>0.3744119970360771</v>
+        <v>0.3938742699101567</v>
       </c>
       <c r="E301" s="2">
         <v>2093.176123176865</v>
@@ -7684,7 +7684,7 @@
         <v>28</v>
       </c>
       <c r="D302" s="2">
-        <v>0.3666386989643797</v>
+        <v>0.3963998768012971</v>
       </c>
       <c r="E302" s="2">
         <v>2397.866319733751</v>
@@ -7708,7 +7708,7 @@
         <v>29</v>
       </c>
       <c r="D303" s="2">
-        <v>0.3658866239711642</v>
+        <v>0.3947276170365512</v>
       </c>
       <c r="E303" s="2">
         <v>2697.802819118508</v>
@@ -7732,7 +7732,7 @@
         <v>30</v>
       </c>
       <c r="D304" s="2">
-        <v>0.3901239120168611</v>
+        <v>0.3990097159985453</v>
       </c>
       <c r="E304" s="2">
         <v>2394.455876793117</v>
@@ -7756,7 +7756,7 @@
         <v>31</v>
       </c>
       <c r="D305" s="2">
-        <v>0.3563714310294017</v>
+        <v>0.4088684620801359</v>
       </c>
       <c r="E305" s="2">
         <v>2413.544248832943</v>
@@ -7780,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="D306" s="2">
-        <v>0.374341874034144</v>
+        <v>0.3967351960018277</v>
       </c>
       <c r="E306" s="2">
         <v>2550.477392062238</v>
@@ -7804,7 +7804,7 @@
         <v>2</v>
       </c>
       <c r="D307" s="2">
-        <v>0.3638654249953106</v>
+        <v>0.4333621950354427</v>
       </c>
       <c r="E307" s="2">
         <v>2803.568025817258</v>
@@ -7828,7 +7828,7 @@
         <v>3</v>
       </c>
       <c r="D308" s="2">
-        <v>0.3969390960410237</v>
+        <v>0.3904962940141559</v>
       </c>
       <c r="E308" s="2">
         <v>2073.297524583329</v>
@@ -7852,7 +7852,7 @@
         <v>4</v>
       </c>
       <c r="D309" s="2">
-        <v>0.369001223007217</v>
+        <v>0.4210110870189965</v>
       </c>
       <c r="E309" s="2">
         <v>2133.790139593566</v>
@@ -7876,7 +7876,7 @@
         <v>5</v>
       </c>
       <c r="D310" s="2">
-        <v>0.3586114500649273</v>
+        <v>0.4194744629785419</v>
       </c>
       <c r="E310" s="2">
         <v>2148.287884216187</v>
@@ -7900,7 +7900,7 @@
         <v>6</v>
       </c>
       <c r="D311" s="2">
-        <v>0.3536579429637641</v>
+        <v>0.4062292887829244</v>
       </c>
       <c r="E311" s="2">
         <v>1420.527062325168</v>
@@ -7924,7 +7924,7 @@
         <v>7</v>
       </c>
       <c r="D312" s="2">
-        <v>0.3727429469581693</v>
+        <v>0.3961353809572756</v>
       </c>
       <c r="E312" s="2">
         <v>2103.994111258195</v>
@@ -7948,7 +7948,7 @@
         <v>8</v>
       </c>
       <c r="D313" s="2">
-        <v>0.361317744012922</v>
+        <v>0.399700049078092</v>
       </c>
       <c r="E313" s="2">
         <v>2174.235817792049</v>
@@ -7972,7 +7972,7 @@
         <v>9</v>
       </c>
       <c r="D314" s="2">
-        <v>0.3612848479533568</v>
+        <v>0.3890774250030518</v>
       </c>
       <c r="E314" s="2">
         <v>2174.726369959499</v>
@@ -7996,7 +7996,7 @@
         <v>10</v>
       </c>
       <c r="D315" s="2">
-        <v>0.3620096839731559</v>
+        <v>0.4068434918299317</v>
       </c>
       <c r="E315" s="2">
         <v>1866.454949582233</v>
@@ -8020,7 +8020,7 @@
         <v>11</v>
       </c>
       <c r="D316" s="2">
-        <v>0.3618618950713426</v>
+        <v>0.4032590589486063</v>
       </c>
       <c r="E316" s="2">
         <v>1974.800587649799</v>
@@ -8044,7 +8044,7 @@
         <v>12</v>
       </c>
       <c r="D317" s="2">
-        <v>0.3675579779082909</v>
+        <v>0.401845847023651</v>
       </c>
       <c r="E317" s="2">
         <v>1982.5924691358</v>
@@ -8068,7 +8068,7 @@
         <v>13</v>
       </c>
       <c r="D318" s="2">
-        <v>0.3667070760857314</v>
+        <v>0.4180083097890019</v>
       </c>
       <c r="E318" s="2">
         <v>3116.188234106302</v>
@@ -8092,7 +8092,7 @@
         <v>14</v>
       </c>
       <c r="D319" s="2">
-        <v>0.3639662089990452</v>
+        <v>0.3862910219468176</v>
       </c>
       <c r="E319" s="2">
         <v>2513.791558419535</v>
@@ -8116,7 +8116,7 @@
         <v>15</v>
       </c>
       <c r="D320" s="2">
-        <v>0.3817021870054305</v>
+        <v>0.3992152649443597</v>
       </c>
       <c r="E320" s="2">
         <v>2487.31334316543</v>
@@ -8140,7 +8140,7 @@
         <v>16</v>
       </c>
       <c r="D321" s="2">
-        <v>0.4102529359515756</v>
+        <v>0.3847216409631073</v>
       </c>
       <c r="E321" s="2">
         <v>2155.624920371579</v>
@@ -8164,7 +8164,7 @@
         <v>17</v>
       </c>
       <c r="D322" s="2">
-        <v>0.5194927850970998</v>
+        <v>0.3999301118310541</v>
       </c>
       <c r="E322" s="2">
         <v>1956.598980337665</v>
@@ -8188,7 +8188,7 @@
         <v>18</v>
       </c>
       <c r="D323" s="2">
-        <v>0.3614070049952716</v>
+        <v>0.3891275029163808</v>
       </c>
       <c r="E323" s="2">
         <v>2033.762385808418</v>
@@ -8212,7 +8212,7 @@
         <v>19</v>
       </c>
       <c r="D324" s="2">
-        <v>0.3706332549918443</v>
+        <v>0.3984454509336501</v>
       </c>
       <c r="E324" s="2">
         <v>1790.692173145078</v>
@@ -8236,7 +8236,7 @@
         <v>20</v>
       </c>
       <c r="D325" s="2">
-        <v>0.3686740070115775</v>
+        <v>0.3946676219347864</v>
       </c>
       <c r="E325" s="2">
         <v>2528.124222885363</v>
@@ -8260,7 +8260,7 @@
         <v>21</v>
       </c>
       <c r="D326" s="2">
-        <v>0.3676380190299824</v>
+        <v>0.4022881658747792</v>
       </c>
       <c r="E326" s="2">
         <v>2288.211181279053</v>
@@ -8284,7 +8284,7 @@
         <v>22</v>
       </c>
       <c r="D327" s="2">
-        <v>0.3610800669994205</v>
+        <v>0.4047169699333608</v>
       </c>
       <c r="E327" s="2">
         <v>2139.448375543241</v>
@@ -8308,7 +8308,7 @@
         <v>23</v>
       </c>
       <c r="D328" s="2">
-        <v>0.3777503740275279</v>
+        <v>0.3890097469557077</v>
       </c>
       <c r="E328" s="2">
         <v>2143.470854204716</v>
@@ -8332,7 +8332,7 @@
         <v>24</v>
       </c>
       <c r="D329" s="2">
-        <v>0.3876453769626096</v>
+        <v>0.4074521770235151</v>
       </c>
       <c r="E329" s="2">
         <v>2346.560229424263</v>
@@ -8356,7 +8356,7 @@
         <v>25</v>
       </c>
       <c r="D330" s="2">
-        <v>0.3693339580204338</v>
+        <v>0.4021428220439702</v>
       </c>
       <c r="E330" s="2">
         <v>2540.480100456501</v>
@@ -8380,7 +8380,7 @@
         <v>26</v>
       </c>
       <c r="D331" s="2">
-        <v>0.3551324780564755</v>
+        <v>0.387423463864252</v>
       </c>
       <c r="E331" s="2">
         <v>2642.413305597452</v>
@@ -8404,7 +8404,7 @@
         <v>27</v>
       </c>
       <c r="D332" s="2">
-        <v>0.3653361179167405</v>
+        <v>0.4122045319527388</v>
       </c>
       <c r="E332" s="2">
         <v>1874.463672395679</v>
@@ -8428,7 +8428,7 @@
         <v>28</v>
       </c>
       <c r="D333" s="2">
-        <v>0.4051396260038018</v>
+        <v>0.4174071680754423</v>
       </c>
       <c r="E333" s="2">
         <v>2746.67888380407</v>
@@ -8452,7 +8452,7 @@
         <v>29</v>
       </c>
       <c r="D334" s="2">
-        <v>0.3629770160187036</v>
+        <v>0.4778106070589274</v>
       </c>
       <c r="E334" s="2">
         <v>2520.968368639324</v>
@@ -8476,7 +8476,7 @@
         <v>30</v>
       </c>
       <c r="D335" s="2">
-        <v>0.3712348870467395</v>
+        <v>0.4262262240517884</v>
       </c>
       <c r="E335" s="2">
         <v>2821.031656368112</v>
@@ -8500,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="D336" s="2">
-        <v>0.3923781090416014</v>
+        <v>0.4086352549493313</v>
       </c>
       <c r="E336" s="2">
         <v>2292.151148569029</v>
@@ -8524,7 +8524,7 @@
         <v>2</v>
       </c>
       <c r="D337" s="2">
-        <v>0.3578671289142221</v>
+        <v>0.4103374090045691</v>
       </c>
       <c r="E337" s="2">
         <v>2070.184153163144</v>
@@ -8548,7 +8548,7 @@
         <v>3</v>
       </c>
       <c r="D338" s="2">
-        <v>0.382876115036197</v>
+        <v>0.4114593730773777</v>
       </c>
       <c r="E338" s="2">
         <v>2101.533017466671</v>
@@ -8572,7 +8572,7 @@
         <v>4</v>
       </c>
       <c r="D339" s="2">
-        <v>0.3736609690822661</v>
+        <v>0.4163220098707825</v>
       </c>
       <c r="E339" s="2">
         <v>2775.48311906452</v>
@@ -8596,7 +8596,7 @@
         <v>5</v>
       </c>
       <c r="D340" s="2">
-        <v>0.3673398570390418</v>
+        <v>0.4181093729566783</v>
       </c>
       <c r="E340" s="2">
         <v>1567.818246447065</v>
@@ -8620,7 +8620,7 @@
         <v>6</v>
       </c>
       <c r="D341" s="2">
-        <v>0.3757249140180647</v>
+        <v>0.3988091961946338</v>
       </c>
       <c r="E341" s="2">
         <v>2859.278216211675</v>
@@ -8644,7 +8644,7 @@
         <v>7</v>
       </c>
       <c r="D342" s="2">
-        <v>0.3614655329147354</v>
+        <v>0.3970481639262289</v>
       </c>
       <c r="E342" s="2">
         <v>2120.579599003091</v>
@@ -8668,7 +8668,7 @@
         <v>8</v>
       </c>
       <c r="D343" s="2">
-        <v>0.3630759839434177</v>
+        <v>0.3929255870170891</v>
       </c>
       <c r="E343" s="2">
         <v>2046.001031995617</v>
@@ -8692,7 +8692,7 @@
         <v>9</v>
       </c>
       <c r="D344" s="2">
-        <v>0.3610786700155586</v>
+        <v>0.3912674351595342</v>
       </c>
       <c r="E344" s="2">
         <v>2478.759343790518</v>
@@ -8716,7 +8716,7 @@
         <v>10</v>
       </c>
       <c r="D345" s="2">
-        <v>0.3646061839535832</v>
+        <v>0.3901294069364667</v>
       </c>
       <c r="E345" s="2">
         <v>2022.565606640633</v>
@@ -8740,7 +8740,7 @@
         <v>11</v>
       </c>
       <c r="D346" s="2">
-        <v>0.3687926710117608</v>
+        <v>0.393256434937939</v>
       </c>
       <c r="E346" s="2">
         <v>2594.355465694332</v>
@@ -8764,7 +8764,7 @@
         <v>12</v>
       </c>
       <c r="D347" s="2">
-        <v>0.3640519770560786</v>
+        <v>0.3914973598439246</v>
       </c>
       <c r="E347" s="2">
         <v>2492.088328115245</v>
@@ -8788,7 +8788,7 @@
         <v>13</v>
       </c>
       <c r="D348" s="2">
-        <v>0.3621821269625798</v>
+        <v>0.4184838039800525</v>
       </c>
       <c r="E348" s="2">
         <v>2768.85535446622</v>
@@ -8812,7 +8812,7 @@
         <v>14</v>
       </c>
       <c r="D349" s="2">
-        <v>0.3624360780231655</v>
+        <v>0.3839784369338304</v>
       </c>
       <c r="E349" s="2">
         <v>2457.131096596207</v>
@@ -8836,7 +8836,7 @@
         <v>15</v>
       </c>
       <c r="D350" s="2">
-        <v>0.3687620100099593</v>
+        <v>0.3974983049556613</v>
       </c>
       <c r="E350" s="2">
         <v>2917.600163431559</v>
@@ -8860,7 +8860,7 @@
         <v>16</v>
       </c>
       <c r="D351" s="2">
-        <v>0.3631169819273055</v>
+        <v>0.4165788241662085</v>
       </c>
       <c r="E351" s="2">
         <v>2465.529689350902</v>
@@ -8884,7 +8884,7 @@
         <v>17</v>
       </c>
       <c r="D352" s="2">
-        <v>0.3629235159605742</v>
+        <v>0.4183918901253492</v>
       </c>
       <c r="E352" s="2">
         <v>2036.974169322242</v>
@@ -8908,7 +8908,7 @@
         <v>18</v>
       </c>
       <c r="D353" s="2">
-        <v>0.370436017983593</v>
+        <v>0.4114199120085686</v>
       </c>
       <c r="E353" s="2">
         <v>2101.488835819664</v>
@@ -8932,7 +8932,7 @@
         <v>19</v>
       </c>
       <c r="D354" s="2">
-        <v>0.3668364960467443</v>
+        <v>0.3854658929631114</v>
       </c>
       <c r="E354" s="2">
         <v>2233.961218290029</v>
@@ -8956,7 +8956,7 @@
         <v>20</v>
       </c>
       <c r="D355" s="2">
-        <v>0.3633458589902148</v>
+        <v>0.4082244359888136</v>
       </c>
       <c r="E355" s="2">
         <v>2422.65477233582</v>
@@ -8980,7 +8980,7 @@
         <v>21</v>
       </c>
       <c r="D356" s="2">
-        <v>0.3618959779851139</v>
+        <v>0.4141709739342332</v>
       </c>
       <c r="E356" s="2">
         <v>2695.900780095736</v>
@@ -9004,7 +9004,7 @@
         <v>22</v>
       </c>
       <c r="D357" s="2">
-        <v>0.3735911959083751</v>
+        <v>0.3887041821144521</v>
       </c>
       <c r="E357" s="2">
         <v>2120.598037190501</v>
@@ -9028,7 +9028,7 @@
         <v>23</v>
       </c>
       <c r="D358" s="2">
-        <v>0.3740832429612055</v>
+        <v>0.3808132039848715</v>
       </c>
       <c r="E358" s="2">
         <v>1975.400320893314</v>
@@ -9052,7 +9052,7 @@
         <v>24</v>
       </c>
       <c r="D359" s="2">
-        <v>0.3626606949837878</v>
+        <v>0.3738307498861104</v>
       </c>
       <c r="E359" s="2">
         <v>2196.411681006276</v>
@@ -9076,7 +9076,7 @@
         <v>25</v>
       </c>
       <c r="D360" s="2">
-        <v>0.3834973030025139</v>
+        <v>0.4017747468315065</v>
       </c>
       <c r="E360" s="2">
         <v>1958.521513233835</v>
@@ -9100,7 +9100,7 @@
         <v>26</v>
       </c>
       <c r="D361" s="2">
-        <v>0.3943306519649923</v>
+        <v>0.4127449099905789</v>
       </c>
       <c r="E361" s="2">
         <v>2288.167940638723</v>
@@ -9124,7 +9124,7 @@
         <v>27</v>
       </c>
       <c r="D362" s="2">
-        <v>0.3840592630440369</v>
+        <v>0.3951844631228596</v>
       </c>
       <c r="E362" s="2">
         <v>2278.652685951822</v>
@@ -9148,7 +9148,7 @@
         <v>28</v>
       </c>
       <c r="D363" s="2">
-        <v>0.3574396870099008</v>
+        <v>0.3959817248396575</v>
       </c>
       <c r="E363" s="2">
         <v>2218.712860994154</v>
@@ -9172,7 +9172,7 @@
         <v>29</v>
       </c>
       <c r="D364" s="2">
-        <v>0.3646890880772844</v>
+        <v>0.4116209910716861</v>
       </c>
       <c r="E364" s="2">
         <v>2099.477696045723</v>
@@ -9196,7 +9196,7 @@
         <v>30</v>
       </c>
       <c r="D365" s="2">
-        <v>0.3670250719878823</v>
+        <v>0.3898154611233622</v>
       </c>
       <c r="E365" s="2">
         <v>1825.298323391744</v>
@@ -9220,7 +9220,7 @@
         <v>1</v>
       </c>
       <c r="D366" s="2">
-        <v>0.3629274970153347</v>
+        <v>0.4020704638678581</v>
       </c>
       <c r="E366" s="2">
         <v>2141.096714178388</v>
@@ -9244,7 +9244,7 @@
         <v>2</v>
       </c>
       <c r="D367" s="2">
-        <v>0.3923390660202131</v>
+        <v>0.4046001911628991</v>
       </c>
       <c r="E367" s="2">
         <v>2129.845562978825</v>
@@ -9268,7 +9268,7 @@
         <v>3</v>
       </c>
       <c r="D368" s="2">
-        <v>0.3924424340948462</v>
+        <v>0.4168918628711253</v>
       </c>
       <c r="E368" s="2">
         <v>2604.148407168685</v>
@@ -9292,7 +9292,7 @@
         <v>4</v>
       </c>
       <c r="D369" s="2">
-        <v>0.3838685910450295</v>
+        <v>0.3974049941170961</v>
       </c>
       <c r="E369" s="2">
         <v>1957.393301951263</v>
@@ -9316,7 +9316,7 @@
         <v>5</v>
       </c>
       <c r="D370" s="2">
-        <v>0.3679206050001085</v>
+        <v>0.3874173879157752</v>
       </c>
       <c r="E370" s="2">
         <v>1929.049679722269</v>
@@ -9340,7 +9340,7 @@
         <v>6</v>
       </c>
       <c r="D371" s="2">
-        <v>0.3760957129998133</v>
+        <v>0.4128154530189931</v>
       </c>
       <c r="E371" s="2">
         <v>1891.847522102674</v>
@@ -9364,7 +9364,7 @@
         <v>7</v>
       </c>
       <c r="D372" s="2">
-        <v>0.3734635219443589</v>
+        <v>0.3980532109271735</v>
       </c>
       <c r="E372" s="2">
         <v>2794.33940233296</v>
@@ -9388,7 +9388,7 @@
         <v>8</v>
       </c>
       <c r="D373" s="2">
-        <v>0.3568868050351739</v>
+        <v>0.4026979370974004</v>
       </c>
       <c r="E373" s="2">
         <v>2602.451760576937</v>
@@ -9412,7 +9412,7 @@
         <v>9</v>
       </c>
       <c r="D374" s="2">
-        <v>0.3577962380368263</v>
+        <v>0.4129751147702336</v>
       </c>
       <c r="E374" s="2">
         <v>2052.879496798337</v>
@@ -9436,7 +9436,7 @@
         <v>10</v>
       </c>
       <c r="D375" s="2">
-        <v>0.3651221879990771</v>
+        <v>0.4119567980524153</v>
       </c>
       <c r="E375" s="2">
         <v>1925.3277438084</v>
@@ -9460,7 +9460,7 @@
         <v>11</v>
       </c>
       <c r="D376" s="2">
-        <v>0.3663400480290875</v>
+        <v>0.4034958281554282</v>
       </c>
       <c r="E376" s="2">
         <v>2363.22189446734</v>
@@ -9484,7 +9484,7 @@
         <v>12</v>
       </c>
       <c r="D377" s="2">
-        <v>0.3653361180331558</v>
+        <v>0.3736069018486887</v>
       </c>
       <c r="E377" s="2">
         <v>2447.535162410311</v>
@@ -9508,7 +9508,7 @@
         <v>13</v>
       </c>
       <c r="D378" s="2">
-        <v>0.3823860230622813</v>
+        <v>0.4113316999282688</v>
       </c>
       <c r="E378" s="2">
         <v>1974.532148995889</v>
@@ -9532,7 +9532,7 @@
         <v>14</v>
       </c>
       <c r="D379" s="2">
-        <v>0.3627975879935548</v>
+        <v>0.4040511529892683</v>
       </c>
       <c r="E379" s="2">
         <v>2220.200507196992</v>
@@ -9556,7 +9556,7 @@
         <v>15</v>
       </c>
       <c r="D380" s="2">
-        <v>0.3655056969728321</v>
+        <v>0.3910300368443131</v>
       </c>
       <c r="E380" s="2">
         <v>2208.057351411536</v>
@@ -9580,7 +9580,7 @@
         <v>16</v>
       </c>
       <c r="D381" s="2">
-        <v>0.370205604005605</v>
+        <v>0.4034120859578252</v>
       </c>
       <c r="E381" s="2">
         <v>2861.241067203724</v>
@@ -9604,7 +9604,7 @@
         <v>17</v>
       </c>
       <c r="D382" s="2">
-        <v>0.3637179150246084</v>
+        <v>0.407690203981474</v>
       </c>
       <c r="E382" s="2">
         <v>1958.120948796095</v>
@@ -9628,7 +9628,7 @@
         <v>18</v>
       </c>
       <c r="D383" s="2">
-        <v>0.3701003500027582</v>
+        <v>0.3968073439318687</v>
       </c>
       <c r="E383" s="2">
         <v>2064.014725784071</v>
@@ -9652,7 +9652,7 @@
         <v>19</v>
       </c>
       <c r="D384" s="2">
-        <v>0.3745096370112151</v>
+        <v>0.3881755380425602</v>
       </c>
       <c r="E384" s="2">
         <v>2924.729042821605</v>
@@ -9676,7 +9676,7 @@
         <v>20</v>
       </c>
       <c r="D385" s="2">
-        <v>0.3570166450226679</v>
+        <v>0.3836503829807043</v>
       </c>
       <c r="E385" s="2">
         <v>2462.071835767862</v>
@@ -9700,7 +9700,7 @@
         <v>21</v>
       </c>
       <c r="D386" s="2">
-        <v>0.372034105937928</v>
+        <v>0.3921099561266601</v>
       </c>
       <c r="E386" s="2">
         <v>2054.180701308586</v>
@@ -9724,7 +9724,7 @@
         <v>22</v>
       </c>
       <c r="D387" s="2">
-        <v>0.3726187649881467</v>
+        <v>0.3846084950491786</v>
       </c>
       <c r="E387" s="2">
         <v>2575.227727061364</v>
@@ -9748,7 +9748,7 @@
         <v>23</v>
       </c>
       <c r="D388" s="2">
-        <v>0.3658924209885299</v>
+        <v>0.4303822570946068</v>
       </c>
       <c r="E388" s="2">
         <v>1646.053630543269</v>
@@ -9772,7 +9772,7 @@
         <v>24</v>
       </c>
       <c r="D389" s="2">
-        <v>0.368161216028966</v>
+        <v>0.3945651608519256</v>
       </c>
       <c r="E389" s="2">
         <v>2616.950332556246</v>
@@ -9796,7 +9796,7 @@
         <v>25</v>
       </c>
       <c r="D390" s="2">
-        <v>0.3677494189469144</v>
+        <v>0.3977401028387249</v>
       </c>
       <c r="E390" s="2">
         <v>2921.500693814433</v>
@@ -9820,7 +9820,7 @@
         <v>26</v>
       </c>
       <c r="D391" s="2">
-        <v>0.3621736059430987</v>
+        <v>0.4060544718522578</v>
       </c>
       <c r="E391" s="2">
         <v>2449.482774238275</v>
@@ -9844,7 +9844,7 @@
         <v>27</v>
       </c>
       <c r="D392" s="2">
-        <v>0.3611661840695888</v>
+        <v>0.3826926911715418</v>
       </c>
       <c r="E392" s="2">
         <v>2513.635308570146</v>
@@ -9868,7 +9868,7 @@
         <v>28</v>
       </c>
       <c r="D393" s="2">
-        <v>0.3792095429962501</v>
+        <v>0.4131343569606543</v>
       </c>
       <c r="E393" s="2">
         <v>2628.465131147235</v>
@@ -9892,7 +9892,7 @@
         <v>29</v>
       </c>
       <c r="D394" s="2">
-        <v>0.3669807220576331</v>
+        <v>0.4188617959152907</v>
       </c>
       <c r="E394" s="2">
         <v>2045.42717516419</v>
@@ -9916,7 +9916,7 @@
         <v>30</v>
       </c>
       <c r="D395" s="2">
-        <v>0.3680461141047999</v>
+        <v>0.4029884848278016</v>
       </c>
       <c r="E395" s="2">
         <v>2484.71790718807</v>
@@ -9940,7 +9940,7 @@
         <v>31</v>
       </c>
       <c r="D396" s="2">
-        <v>0.3660735939629376</v>
+        <v>0.3936471398919821</v>
       </c>
       <c r="E396" s="2">
         <v>2386.756028005147</v>
@@ -9964,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="D397" s="2">
-        <v>0.3645304730162024</v>
+        <v>0.4158955470193177</v>
       </c>
       <c r="E397" s="2">
         <v>3105.278406368193</v>
@@ -9988,7 +9988,7 @@
         <v>2</v>
       </c>
       <c r="D398" s="2">
-        <v>0.3628633100306615</v>
+        <v>0.4303413280285895</v>
       </c>
       <c r="E398" s="2">
         <v>1911.607552698302</v>
@@ -10012,7 +10012,7 @@
         <v>3</v>
       </c>
       <c r="D399" s="2">
-        <v>0.3709676660364494</v>
+        <v>0.4466270639095455</v>
       </c>
       <c r="E399" s="2">
         <v>2011.801926986374</v>
@@ -10036,7 +10036,7 @@
         <v>4</v>
       </c>
       <c r="D400" s="2">
-        <v>0.3671266250312328</v>
+        <v>0.4138228739611804</v>
       </c>
       <c r="E400" s="2">
         <v>2666.885073440669</v>
@@ -10060,7 +10060,7 @@
         <v>5</v>
       </c>
       <c r="D401" s="2">
-        <v>0.3719158609164879</v>
+        <v>0.4151722490787506</v>
       </c>
       <c r="E401" s="2">
         <v>2166.229585204542</v>
@@ -10084,7 +10084,7 @@
         <v>6</v>
       </c>
       <c r="D402" s="2">
-        <v>0.3711945879040286</v>
+        <v>0.4007966599892825</v>
       </c>
       <c r="E402" s="2">
         <v>2092.148574489011</v>
@@ -10108,7 +10108,7 @@
         <v>7</v>
       </c>
       <c r="D403" s="2">
-        <v>0.3576768040657043</v>
+        <v>0.4018951570615172</v>
       </c>
       <c r="E403" s="2">
         <v>1989.355385964532</v>
@@ -10132,7 +10132,7 @@
         <v>8</v>
       </c>
       <c r="D404" s="2">
-        <v>0.3635441439691931</v>
+        <v>0.3950202611740679</v>
       </c>
       <c r="E404" s="2">
         <v>2163.614345411667</v>
@@ -10156,7 +10156,7 @@
         <v>9</v>
       </c>
       <c r="D405" s="2">
-        <v>0.3584281799849123</v>
+        <v>0.4132421261165291</v>
       </c>
       <c r="E405" s="2">
         <v>2004.797372912014</v>
@@ -10180,7 +10180,7 @@
         <v>10</v>
       </c>
       <c r="D406" s="2">
-        <v>0.3793861769372597</v>
+        <v>0.4227953068912029</v>
       </c>
       <c r="E406" s="2">
         <v>1988.570969542856</v>
@@ -10204,7 +10204,7 @@
         <v>11</v>
       </c>
       <c r="D407" s="2">
-        <v>0.3651047960156575</v>
+        <v>0.4153936519287527</v>
       </c>
       <c r="E407" s="2">
         <v>1687.391591314908</v>
@@ -10228,7 +10228,7 @@
         <v>12</v>
       </c>
       <c r="D408" s="2">
-        <v>0.3651183459442109</v>
+        <v>0.5753213609568775</v>
       </c>
       <c r="E408" s="2">
         <v>1812.624549284745</v>
@@ -10252,7 +10252,7 @@
         <v>13</v>
       </c>
       <c r="D409" s="2">
-        <v>0.3755880899261683</v>
+        <v>0.8897945750504732</v>
       </c>
       <c r="E409" s="2">
         <v>1771.24881947355</v>
@@ -10276,7 +10276,7 @@
         <v>14</v>
       </c>
       <c r="D410" s="2">
-        <v>0.3537689230870456</v>
+        <v>0.425710221985355</v>
       </c>
       <c r="E410" s="2">
         <v>2507.32809934201</v>
@@ -10300,7 +10300,7 @@
         <v>15</v>
       </c>
       <c r="D411" s="2">
-        <v>0.3557152519933879</v>
+        <v>0.4006416078191251</v>
       </c>
       <c r="E411" s="2">
         <v>2467.079631139003</v>
@@ -10324,7 +10324,7 @@
         <v>16</v>
       </c>
       <c r="D412" s="2">
-        <v>0.351749888039194</v>
+        <v>0.3897107657976449</v>
       </c>
       <c r="E412" s="2">
         <v>2454.943913213881</v>
@@ -10348,7 +10348,7 @@
         <v>17</v>
       </c>
       <c r="D413" s="2">
-        <v>0.3616895209997892</v>
+        <v>0.401199237909168</v>
       </c>
       <c r="E413" s="2">
         <v>2226.189000106105</v>
@@ -10372,7 +10372,7 @@
         <v>18</v>
       </c>
       <c r="D414" s="2">
-        <v>0.3765927879139781</v>
+        <v>0.3893838981166482</v>
       </c>
       <c r="E414" s="2">
         <v>2139.271055985825</v>
@@ -10396,7 +10396,7 @@
         <v>19</v>
       </c>
       <c r="D415" s="2">
-        <v>0.3667847409378737</v>
+        <v>0.4003796228207648</v>
       </c>
       <c r="E415" s="2">
         <v>1994.319927094142</v>
@@ -10420,7 +10420,7 @@
         <v>20</v>
       </c>
       <c r="D416" s="2">
-        <v>0.365244343993254</v>
+        <v>0.3937116039451212</v>
       </c>
       <c r="E416" s="2">
         <v>2224.923101035529</v>
@@ -10444,7 +10444,7 @@
         <v>21</v>
       </c>
       <c r="D417" s="2">
-        <v>0.3637789580971003</v>
+        <v>0.3966820470523089</v>
       </c>
       <c r="E417" s="2">
         <v>2038.993921146112</v>
@@ -10468,7 +10468,7 @@
         <v>22</v>
       </c>
       <c r="D418" s="2">
-        <v>0.3675951350014657</v>
+        <v>0.400973784038797</v>
       </c>
       <c r="E418" s="2">
         <v>1792.255481862485</v>
@@ -10492,7 +10492,7 @@
         <v>23</v>
       </c>
       <c r="D419" s="2">
-        <v>0.3684816580498591</v>
+        <v>0.3943756078369915</v>
       </c>
       <c r="E419" s="2">
         <v>2527.926338973391</v>
@@ -10516,7 +10516,7 @@
         <v>24</v>
       </c>
       <c r="D420" s="2">
-        <v>0.3581608900567517</v>
+        <v>0.4119514210615307</v>
       </c>
       <c r="E420" s="2">
         <v>1893.856963774813</v>
@@ -10540,7 +10540,7 @@
         <v>25</v>
       </c>
       <c r="D421" s="2">
-        <v>0.3644769029924646</v>
+        <v>0.4131586640141904</v>
       </c>
       <c r="E421" s="2">
         <v>1737.201649272558</v>
@@ -10564,7 +10564,7 @@
         <v>26</v>
       </c>
       <c r="D422" s="2">
-        <v>0.3750832610530779</v>
+        <v>0.407227004179731</v>
       </c>
       <c r="E422" s="2">
         <v>2181.758990259251</v>
@@ -10588,7 +10588,7 @@
         <v>27</v>
       </c>
       <c r="D423" s="2">
-        <v>0.3765600310871378</v>
+        <v>0.4041765930596739</v>
       </c>
       <c r="E423" s="2">
         <v>2211.941829674329</v>
@@ -10612,7 +10612,7 @@
         <v>28</v>
       </c>
       <c r="D424" s="2">
-        <v>1.899733005091548</v>
+        <v>0.3947600950486958</v>
       </c>
       <c r="E424" s="2">
         <v>1682.626120111182</v>
@@ -10636,7 +10636,7 @@
         <v>1</v>
       </c>
       <c r="D425" s="2">
-        <v>0.97763926605694</v>
+        <v>0.3928179589565843</v>
       </c>
       <c r="E425" s="2">
         <v>1683.217770503193</v>
@@ -10660,7 +10660,7 @@
         <v>2</v>
       </c>
       <c r="D426" s="2">
-        <v>0.9640218160348013</v>
+        <v>0.3979608791414648</v>
       </c>
       <c r="E426" s="2">
         <v>2233.233197864206</v>
@@ -10684,7 +10684,7 @@
         <v>3</v>
       </c>
       <c r="D427" s="2">
-        <v>0.3713264509569854</v>
+        <v>0.3957301501650363</v>
       </c>
       <c r="E427" s="2">
         <v>1960.442864197815</v>
@@ -10708,7 +10708,7 @@
         <v>4</v>
       </c>
       <c r="D428" s="2">
-        <v>0.3628510169219226</v>
+        <v>0.4702342059463263</v>
       </c>
       <c r="E428" s="2">
         <v>1936.512470660005</v>
@@ -10732,7 +10732,7 @@
         <v>5</v>
       </c>
       <c r="D429" s="2">
-        <v>0.3685847459128127</v>
+        <v>0.4710777050349861</v>
       </c>
       <c r="E429" s="2">
         <v>2496.493827221376</v>
@@ -10756,7 +10756,7 @@
         <v>6</v>
       </c>
       <c r="D430" s="2">
-        <v>0.3581029890337959</v>
+        <v>0.4579843019600958</v>
       </c>
       <c r="E430" s="2">
         <v>1897.539009068802</v>
@@ -10780,7 +10780,7 @@
         <v>7</v>
       </c>
       <c r="D431" s="2">
-        <v>0.3649230630835518</v>
+        <v>0.4635646489914507</v>
       </c>
       <c r="E431" s="2">
         <v>1751.859819335068</v>
@@ -10804,7 +10804,7 @@
         <v>8</v>
       </c>
       <c r="D432" s="2">
-        <v>0.3664383169962093</v>
+        <v>0.458500443957746</v>
       </c>
       <c r="E432" s="2">
         <v>2294.192651908066</v>
@@ -10828,7 +10828,7 @@
         <v>9</v>
       </c>
       <c r="D433" s="2">
-        <v>0.3618686689296737</v>
+        <v>0.4498434939887375</v>
       </c>
       <c r="E433" s="2">
         <v>2452.40604866782</v>
@@ -10852,7 +10852,7 @@
         <v>10</v>
       </c>
       <c r="D434" s="2">
-        <v>0.3715194989927113</v>
+        <v>0.4569891719147563</v>
       </c>
       <c r="E434" s="2">
         <v>1998.463837148076</v>
@@ -10876,7 +10876,7 @@
         <v>11</v>
       </c>
       <c r="D435" s="2">
-        <v>0.3645926340250298</v>
+        <v>0.435971894999966</v>
       </c>
       <c r="E435" s="2">
         <v>2254.556799926816</v>
@@ -10900,7 +10900,7 @@
         <v>12</v>
       </c>
       <c r="D436" s="2">
-        <v>0.357592853019014</v>
+        <v>0.4863855638541281</v>
       </c>
       <c r="E436" s="2">
         <v>2073.970884952444</v>
@@ -10924,7 +10924,7 @@
         <v>13</v>
       </c>
       <c r="D437" s="2">
-        <v>0.3556160730076954</v>
+        <v>0.448701832909137</v>
       </c>
       <c r="E437" s="2">
         <v>2562.582975121857</v>
@@ -10948,7 +10948,7 @@
         <v>14</v>
       </c>
       <c r="D438" s="2">
-        <v>0.3819667529314756</v>
+        <v>0.4420382839161903</v>
       </c>
       <c r="E438" s="2">
         <v>2255.35928431974</v>
@@ -10972,7 +10972,7 @@
         <v>15</v>
       </c>
       <c r="D439" s="2">
-        <v>0.3856945079751313</v>
+        <v>0.4577035307884216</v>
       </c>
       <c r="E439" s="2">
         <v>2399.513718187653</v>
@@ -10996,7 +10996,7 @@
         <v>16</v>
       </c>
       <c r="D440" s="2">
-        <v>0.3658526099752635</v>
+        <v>0.4332697931677103</v>
       </c>
       <c r="E440" s="2">
         <v>2278.338662123207</v>
@@ -11020,7 +11020,7 @@
         <v>17</v>
       </c>
       <c r="D441" s="2">
-        <v>0.3745145960710943</v>
+        <v>0.439647473860532</v>
       </c>
       <c r="E441" s="2">
         <v>2621.839627268885</v>
@@ -11044,7 +11044,7 @@
         <v>18</v>
       </c>
       <c r="D442" s="2">
-        <v>0.3681494819466025</v>
+        <v>0.4357127058319747</v>
       </c>
       <c r="E442" s="2">
         <v>2420.639512634205</v>
@@ -11068,7 +11068,7 @@
         <v>19</v>
       </c>
       <c r="D443" s="2">
-        <v>0.3857365539297462</v>
+        <v>0.4475108638871461</v>
       </c>
       <c r="E443" s="2">
         <v>2193.358903931784</v>
@@ -11092,7 +11092,7 @@
         <v>20</v>
       </c>
       <c r="D444" s="2">
-        <v>0.3791348800295964</v>
+        <v>0.4263228890486062</v>
       </c>
       <c r="E444" s="2">
         <v>2129.343535096184</v>
@@ -11116,7 +11116,7 @@
         <v>21</v>
       </c>
       <c r="D445" s="2">
-        <v>0.3533060699701309</v>
+        <v>0.4676809408701956</v>
       </c>
       <c r="E445" s="2">
         <v>2603.081626913807</v>
@@ -11140,7 +11140,7 @@
         <v>22</v>
       </c>
       <c r="D446" s="2">
-        <v>0.3744983220240101</v>
+        <v>0.4348523048684001</v>
       </c>
       <c r="E446" s="2">
         <v>2878.031504565235</v>
@@ -11164,7 +11164,7 @@
         <v>23</v>
       </c>
       <c r="D447" s="2">
-        <v>0.3757713589584455</v>
+        <v>0.4193700482137501</v>
       </c>
       <c r="E447" s="2">
         <v>2178.624570211023</v>
@@ -11188,7 +11188,7 @@
         <v>24</v>
       </c>
       <c r="D448" s="2">
-        <v>0.3720790849765763</v>
+        <v>0.4168742629699409</v>
       </c>
       <c r="E448" s="2">
         <v>1767.608635181344</v>
@@ -11212,7 +11212,7 @@
         <v>25</v>
       </c>
       <c r="D449" s="2">
-        <v>0.3625048040412366</v>
+        <v>0.4489151360467076</v>
       </c>
       <c r="E449" s="2">
         <v>1964.77961112694</v>
@@ -11236,7 +11236,7 @@
         <v>26</v>
       </c>
       <c r="D450" s="2">
-        <v>0.3852416430599988</v>
+        <v>0.4577401289716363</v>
       </c>
       <c r="E450" s="2">
         <v>2182.042962346913</v>
@@ -11260,7 +11260,7 @@
         <v>27</v>
       </c>
       <c r="D451" s="2">
-        <v>0.3690509520238265</v>
+        <v>0.452655180124566</v>
       </c>
       <c r="E451" s="2">
         <v>2075.906016081974</v>
@@ -11284,7 +11284,7 @@
         <v>28</v>
       </c>
       <c r="D452" s="2">
-        <v>0.3557083359919488</v>
+        <v>0.4489133888855577</v>
       </c>
       <c r="E452" s="2">
         <v>2400.526589905438</v>
@@ -11308,7 +11308,7 @@
         <v>29</v>
       </c>
       <c r="D453" s="2">
-        <v>0.3644298979779705</v>
+        <v>0.4281131147872657</v>
       </c>
       <c r="E453" s="2">
         <v>2237.169583108663</v>
@@ -11332,7 +11332,7 @@
         <v>30</v>
       </c>
       <c r="D454" s="2">
-        <v>0.3924546570051461</v>
+        <v>0.4243315828498453</v>
       </c>
       <c r="E454" s="2">
         <v>1945.755064011042</v>
@@ -11356,7 +11356,7 @@
         <v>31</v>
       </c>
       <c r="D455" s="2">
-        <v>0.3782365539809689</v>
+        <v>0.4598105668555945</v>
       </c>
       <c r="E455" s="2">
         <v>2473.611835262086</v>
@@ -11380,7 +11380,7 @@
         <v>1</v>
       </c>
       <c r="D456" s="2">
-        <v>0.4023202549433336</v>
+        <v>0.4608436201233417</v>
       </c>
       <c r="E456" s="2">
         <v>2680.807814518193</v>
@@ -11404,7 +11404,7 @@
         <v>2</v>
       </c>
       <c r="D457" s="2">
-        <v>0.3547374421032146</v>
+        <v>0.4550341858994216</v>
       </c>
       <c r="E457" s="2">
         <v>2338.62786402672</v>
@@ -11428,7 +11428,7 @@
         <v>3</v>
       </c>
       <c r="D458" s="2">
-        <v>0.3683673229534179</v>
+        <v>0.4458395109977573</v>
       </c>
       <c r="E458" s="2">
         <v>2001.199305827597</v>
@@ -11452,7 +11452,7 @@
         <v>4</v>
       </c>
       <c r="D459" s="2">
-        <v>0.3608094929950312</v>
+        <v>0.4609256871044636</v>
       </c>
       <c r="E459" s="2">
         <v>2533.179526462672</v>
@@ -11476,7 +11476,7 @@
         <v>5</v>
       </c>
       <c r="D460" s="2">
-        <v>0.375743072014302</v>
+        <v>0.4339678077958524</v>
       </c>
       <c r="E460" s="2">
         <v>2077.226579555136</v>
@@ -11500,10 +11500,10 @@
         <v>6</v>
       </c>
       <c r="D461" s="2">
-        <v>0.358859533094801</v>
+        <v>0.4444707198999822</v>
       </c>
       <c r="E461" s="2">
-        <v>2614.806090076451</v>
+        <v>2614.806090076452</v>
       </c>
       <c r="F461" s="2">
         <v>2614.806090076452</v>
@@ -11524,7 +11524,7 @@
         <v>7</v>
       </c>
       <c r="D462" s="2">
-        <v>0.3790039940504357</v>
+        <v>0.4623637618497014</v>
       </c>
       <c r="E462" s="2">
         <v>1788.941936812416</v>
@@ -11548,7 +11548,7 @@
         <v>8</v>
       </c>
       <c r="D463" s="2">
-        <v>0.3525880801025778</v>
+        <v>0.4648255319334567</v>
       </c>
       <c r="E463" s="2">
         <v>2177.280871673228</v>
@@ -11572,7 +11572,7 @@
         <v>9</v>
       </c>
       <c r="D464" s="2">
-        <v>0.3652988909743726</v>
+        <v>0.4109851371031255</v>
       </c>
       <c r="E464" s="2">
         <v>2091.413283591552</v>
@@ -11596,7 +11596,7 @@
         <v>10</v>
       </c>
       <c r="D465" s="2">
-        <v>0.3612242229282856</v>
+        <v>0.4658759781159461</v>
       </c>
       <c r="E465" s="2">
         <v>2158.425700044915</v>
@@ -11620,7 +11620,7 @@
         <v>11</v>
       </c>
       <c r="D466" s="2">
-        <v>0.3630898130359128</v>
+        <v>0.4331987628247589</v>
       </c>
       <c r="E466" s="2">
         <v>1687.346990547035</v>
@@ -11644,7 +11644,7 @@
         <v>12</v>
       </c>
       <c r="D467" s="2">
-        <v>0.3660692640114576</v>
+        <v>0.4370932308956981</v>
       </c>
       <c r="E467" s="2">
         <v>2740.871312682354</v>
@@ -11668,7 +11668,7 @@
         <v>13</v>
       </c>
       <c r="D468" s="2">
-        <v>0.3666766230016947</v>
+        <v>0.4438139828853309</v>
       </c>
       <c r="E468" s="2">
         <v>2033.564021427132</v>
@@ -11692,7 +11692,7 @@
         <v>14</v>
       </c>
       <c r="D469" s="2">
-        <v>0.3665426629595459</v>
+        <v>0.4233510519843549</v>
       </c>
       <c r="E469" s="2">
         <v>2151.244720333246</v>
@@ -11716,7 +11716,7 @@
         <v>15</v>
       </c>
       <c r="D470" s="2">
-        <v>0.384062475990504</v>
+        <v>0.4537407560274005</v>
       </c>
       <c r="E470" s="2">
         <v>2126.750954427531</v>
@@ -11740,7 +11740,7 @@
         <v>16</v>
       </c>
       <c r="D471" s="2">
-        <v>0.3648734040325508</v>
+        <v>0.4435264368075877</v>
       </c>
       <c r="E471" s="2">
         <v>2252.405874893001</v>
@@ -11764,7 +11764,7 @@
         <v>17</v>
       </c>
       <c r="D472" s="2">
-        <v>0.3638874250464141</v>
+        <v>0.4713259988930076</v>
       </c>
       <c r="E472" s="2">
         <v>2252.424747154174</v>
@@ -11788,7 +11788,7 @@
         <v>18</v>
       </c>
       <c r="D473" s="2">
-        <v>0.3796515120193362</v>
+        <v>0.4636345629114658</v>
       </c>
       <c r="E473" s="2">
         <v>1924.025509475847</v>
@@ -11812,7 +11812,7 @@
         <v>19</v>
       </c>
       <c r="D474" s="2">
-        <v>0.3726705888984725</v>
+        <v>0.4460686680395156</v>
       </c>
       <c r="E474" s="2">
         <v>2371.913813685158</v>
@@ -11836,7 +11836,7 @@
         <v>20</v>
       </c>
       <c r="D475" s="2">
-        <v>0.3684331859694794</v>
+        <v>0.4480749189388007</v>
       </c>
       <c r="E475" s="2">
         <v>1802.72925053143</v>
@@ -11860,7 +11860,7 @@
         <v>21</v>
       </c>
       <c r="D476" s="2">
-        <v>0.3609743929700926</v>
+        <v>0.4493537519592792</v>
       </c>
       <c r="E476" s="2">
         <v>2285.892241229538</v>
@@ -11884,7 +11884,7 @@
         <v>22</v>
       </c>
       <c r="D477" s="2">
-        <v>0.3630815000506118</v>
+        <v>0.4309618878178298</v>
       </c>
       <c r="E477" s="2">
         <v>2213.459156037147</v>
@@ -11908,7 +11908,7 @@
         <v>23</v>
       </c>
       <c r="D478" s="2">
-        <v>0.396310294046998</v>
+        <v>0.425149658927694</v>
       </c>
       <c r="E478" s="2">
         <v>2326.766275704219</v>
@@ -11932,7 +11932,7 @@
         <v>24</v>
       </c>
       <c r="D479" s="2">
-        <v>0.3584517169510946</v>
+        <v>0.4158864680211991</v>
       </c>
       <c r="E479" s="2">
         <v>2155.970088522078</v>
@@ -11956,7 +11956,7 @@
         <v>25</v>
       </c>
       <c r="D480" s="2">
-        <v>0.3883497460046783</v>
+        <v>0.407309487927705</v>
       </c>
       <c r="E480" s="2">
         <v>1908.230490468129</v>
@@ -11980,7 +11980,7 @@
         <v>26</v>
       </c>
       <c r="D481" s="2">
-        <v>0.3614688150119036</v>
+        <v>0.4560381849296391</v>
       </c>
       <c r="E481" s="2">
         <v>2303.597589152269</v>
@@ -12004,7 +12004,7 @@
         <v>27</v>
       </c>
       <c r="D482" s="2">
-        <v>0.3626150860218331</v>
+        <v>0.4580127280205488</v>
       </c>
       <c r="E482" s="2">
         <v>1772.943299203067</v>
@@ -12028,7 +12028,7 @@
         <v>28</v>
       </c>
       <c r="D483" s="2">
-        <v>0.3591099920449778</v>
+        <v>0.4657808509655297</v>
       </c>
       <c r="E483" s="2">
         <v>2450.471937773571</v>
@@ -12052,7 +12052,7 @@
         <v>29</v>
       </c>
       <c r="D484" s="2">
-        <v>0.383339386084117</v>
+        <v>0.4330868730321527</v>
       </c>
       <c r="E484" s="2">
         <v>2492.355016418449</v>
@@ -12076,7 +12076,7 @@
         <v>30</v>
       </c>
       <c r="D485" s="2">
-        <v>0.3603690600721166</v>
+        <v>0.4310897709801793</v>
       </c>
       <c r="E485" s="2">
         <v>1940.209507773368</v>
@@ -12100,7 +12100,7 @@
         <v>1</v>
       </c>
       <c r="D486" s="2">
-        <v>0.380210957955569</v>
+        <v>0.4600325289648026</v>
       </c>
       <c r="E486" s="2">
         <v>2005.220081528673</v>
@@ -12124,7 +12124,7 @@
         <v>2</v>
       </c>
       <c r="D487" s="2">
-        <v>0.3699119810480624</v>
+        <v>0.4354637151118368</v>
       </c>
       <c r="E487" s="2">
         <v>2086.203913064406</v>
@@ -12148,7 +12148,7 @@
         <v>3</v>
       </c>
       <c r="D488" s="2">
-        <v>0.3708598270313814</v>
+        <v>0.4504502939525992</v>
       </c>
       <c r="E488" s="2">
         <v>2436.70982797981</v>
@@ -12172,7 +12172,7 @@
         <v>4</v>
       </c>
       <c r="D489" s="2">
-        <v>0.3740872229682282</v>
+        <v>0.3950803969055414</v>
       </c>
       <c r="E489" s="2">
         <v>1827.062700594338</v>
@@ -12196,7 +12196,7 @@
         <v>5</v>
       </c>
       <c r="D490" s="2">
-        <v>0.3632998320972547</v>
+        <v>0.4167917089071125</v>
       </c>
       <c r="E490" s="2">
         <v>2210.373910312375</v>
@@ -12220,7 +12220,7 @@
         <v>6</v>
       </c>
       <c r="D491" s="2">
-        <v>0.373693375964649</v>
+        <v>0.3959467350505292</v>
       </c>
       <c r="E491" s="2">
         <v>2173.342650414028</v>
@@ -12244,7 +12244,7 @@
         <v>7</v>
       </c>
       <c r="D492" s="2">
-        <v>0.3754166229628026</v>
+        <v>0.4199875330086797</v>
       </c>
       <c r="E492" s="2">
         <v>2338.313195010187</v>
@@ -12268,7 +12268,7 @@
         <v>8</v>
       </c>
       <c r="D493" s="2">
-        <v>0.3663568790070713</v>
+        <v>0.4311258799862117</v>
       </c>
       <c r="E493" s="2">
         <v>2303.126058467849</v>
@@ -12292,7 +12292,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="2">
-        <v>0.3563548079691827</v>
+        <v>0.4270232089329511</v>
       </c>
       <c r="E494" s="2">
         <v>2297.970077634458</v>
@@ -12316,7 +12316,7 @@
         <v>10</v>
       </c>
       <c r="D495" s="2">
-        <v>0.3852662279969081</v>
+        <v>0.383394688135013</v>
       </c>
       <c r="E495" s="2">
         <v>2072.251934614686</v>
@@ -12340,7 +12340,7 @@
         <v>11</v>
       </c>
       <c r="D496" s="2">
-        <v>0.3902010170277208</v>
+        <v>0.4011564238462597</v>
       </c>
       <c r="E496" s="2">
         <v>2031.349119676611</v>
@@ -12364,7 +12364,7 @@
         <v>12</v>
       </c>
       <c r="D497" s="2">
-        <v>0.3619242639979348</v>
+        <v>0.4031780411023647</v>
       </c>
       <c r="E497" s="2">
         <v>2181.737700367056</v>
@@ -12388,7 +12388,7 @@
         <v>13</v>
       </c>
       <c r="D498" s="2">
-        <v>0.3727402919903398</v>
+        <v>0.4036425699014217</v>
       </c>
       <c r="E498" s="2">
         <v>2128.782722806049</v>
@@ -12412,7 +12412,7 @@
         <v>14</v>
       </c>
       <c r="D499" s="2">
-        <v>0.3714630650356412</v>
+        <v>0.4144956071395427</v>
       </c>
       <c r="E499" s="2">
         <v>1677.112754080203</v>
@@ -12436,7 +12436,7 @@
         <v>15</v>
       </c>
       <c r="D500" s="2">
-        <v>0.6098600230179727</v>
+        <v>0.4128896968904883</v>
       </c>
       <c r="E500" s="2">
         <v>2375.313524151718</v>
@@ -12460,7 +12460,7 @@
         <v>16</v>
       </c>
       <c r="D501" s="2">
-        <v>0.3668617779621854</v>
+        <v>0.3885078539606184</v>
       </c>
       <c r="E501" s="2">
         <v>1974.292343636168</v>
@@ -12484,7 +12484,7 @@
         <v>17</v>
       </c>
       <c r="D502" s="2">
-        <v>0.375727217993699</v>
+        <v>0.398747944040224</v>
       </c>
       <c r="E502" s="2">
         <v>2202.712458943724</v>
@@ -12508,7 +12508,7 @@
         <v>18</v>
       </c>
       <c r="D503" s="2">
-        <v>0.3668860829202458</v>
+        <v>0.4094446019735187</v>
       </c>
       <c r="E503" s="2">
         <v>1695.200600415448</v>
@@ -12532,7 +12532,7 @@
         <v>19</v>
       </c>
       <c r="D504" s="2">
-        <v>0.3666461709653959</v>
+        <v>0.3939641600009054</v>
       </c>
       <c r="E504" s="2">
         <v>2451.927995287889</v>
@@ -12556,7 +12556,7 @@
         <v>20</v>
       </c>
       <c r="D505" s="2">
-        <v>0.3715001509990543</v>
+        <v>0.4221152430400252</v>
       </c>
       <c r="E505" s="2">
         <v>2742.32728672341</v>
@@ -12580,7 +12580,7 @@
         <v>21</v>
       </c>
       <c r="D506" s="2">
-        <v>0.3674090710701421</v>
+        <v>0.4021483398973942</v>
       </c>
       <c r="E506" s="2">
         <v>1834.68648411814</v>
@@ -12604,7 +12604,7 @@
         <v>22</v>
       </c>
       <c r="D507" s="2">
-        <v>0.3633400609251112</v>
+        <v>0.3965566768310964</v>
       </c>
       <c r="E507" s="2">
         <v>1982.050202010844</v>
@@ -12628,7 +12628,7 @@
         <v>23</v>
       </c>
       <c r="D508" s="2">
-        <v>0.3577275100396946</v>
+        <v>0.4028122720774263</v>
       </c>
       <c r="E508" s="2">
         <v>2154.38612365002</v>
@@ -12652,7 +12652,7 @@
         <v>24</v>
       </c>
       <c r="D509" s="2">
-        <v>0.3792979639256373</v>
+        <v>0.3895391609985381</v>
       </c>
       <c r="E509" s="2">
         <v>2074.942607263144</v>
@@ -12676,7 +12676,7 @@
         <v>25</v>
       </c>
       <c r="D510" s="2">
-        <v>0.3783490010537207</v>
+        <v>0.3899074459914118</v>
       </c>
       <c r="E510" s="2">
         <v>2018.877417867809</v>
@@ -12700,7 +12700,7 @@
         <v>26</v>
       </c>
       <c r="D511" s="2">
-        <v>0.3717765220208094</v>
+        <v>0.4217827180400491</v>
       </c>
       <c r="E511" s="2">
         <v>2176.689894957955</v>
@@ -12724,7 +12724,7 @@
         <v>27</v>
       </c>
       <c r="D512" s="2">
-        <v>0.3582319200504571</v>
+        <v>0.450357262045145</v>
       </c>
       <c r="E512" s="2">
         <v>1840.198032304611</v>
@@ -12748,7 +12748,7 @@
         <v>28</v>
       </c>
       <c r="D513" s="2">
-        <v>0.3666719429893419</v>
+        <v>0.4092922031413764</v>
       </c>
       <c r="E513" s="2">
         <v>2173.758086818704</v>
@@ -12772,7 +12772,7 @@
         <v>29</v>
       </c>
       <c r="D514" s="2">
-        <v>0.3784559320192784</v>
+        <v>0.3967257679905742</v>
       </c>
       <c r="E514" s="2">
         <v>2216.55834202456</v>
@@ -12796,7 +12796,7 @@
         <v>30</v>
       </c>
       <c r="D515" s="2">
-        <v>0.3663319449406117</v>
+        <v>0.4031251699198037</v>
       </c>
       <c r="E515" s="2">
         <v>2222.727119393627</v>
@@ -12820,7 +12820,7 @@
         <v>31</v>
       </c>
       <c r="D516" s="2">
-        <v>0.3822132310597226</v>
+        <v>0.4231772120110691</v>
       </c>
       <c r="E516" s="2">
         <v>1624.681193749283</v>
@@ -12844,7 +12844,7 @@
         <v>1</v>
       </c>
       <c r="D517" s="2">
-        <v>0.3571778420591727</v>
+        <v>0.3960593920201063</v>
       </c>
       <c r="E517" s="2">
         <v>2352.635328713841</v>
@@ -12868,7 +12868,7 @@
         <v>2</v>
       </c>
       <c r="D518" s="2">
-        <v>0.3586141729028895</v>
+        <v>0.4061460378579795</v>
       </c>
       <c r="E518" s="2">
         <v>1772.558504688921</v>
@@ -12892,7 +12892,7 @@
         <v>3</v>
       </c>
       <c r="D519" s="2">
-        <v>0.3657980610150844</v>
+        <v>0.403309206943959</v>
       </c>
       <c r="E519" s="2">
         <v>1820.291662149601</v>
@@ -12916,7 +12916,7 @@
         <v>4</v>
       </c>
       <c r="D520" s="2">
-        <v>0.3611545891035348</v>
+        <v>0.3954380648210645</v>
       </c>
       <c r="E520" s="2">
         <v>2355.103305700304</v>
@@ -12940,7 +12940,7 @@
         <v>5</v>
       </c>
       <c r="D521" s="2">
-        <v>0.3737496689427644</v>
+        <v>0.4185995350126177</v>
       </c>
       <c r="E521" s="2">
         <v>2508.311108655002</v>
@@ -12964,7 +12964,7 @@
         <v>6</v>
       </c>
       <c r="D522" s="2">
-        <v>0.362129813991487</v>
+        <v>0.4032198779750615</v>
       </c>
       <c r="E522" s="2">
         <v>1873.710800900977</v>
@@ -12988,7 +12988,7 @@
         <v>7</v>
       </c>
       <c r="D523" s="2">
-        <v>0.3812999569345266</v>
+        <v>0.3994152280502021</v>
       </c>
       <c r="E523" s="2">
         <v>2097.377808237355</v>
@@ -13012,7 +13012,7 @@
         <v>8</v>
       </c>
       <c r="D524" s="2">
-        <v>0.3684363979846239</v>
+        <v>0.4042448299005628</v>
       </c>
       <c r="E524" s="2">
         <v>1922.852687891714</v>
@@ -13036,7 +13036,7 @@
         <v>9</v>
       </c>
       <c r="D525" s="2">
-        <v>0.3682036800310016</v>
+        <v>0.3927975660189986</v>
       </c>
       <c r="E525" s="2">
         <v>2358.327551728115</v>
@@ -13060,7 +13060,7 @@
         <v>10</v>
       </c>
       <c r="D526" s="2">
-        <v>0.3611765200039372</v>
+        <v>0.3836818139534444</v>
       </c>
       <c r="E526" s="2">
         <v>2763.824556972131</v>
@@ -13084,7 +13084,7 @@
         <v>11</v>
       </c>
       <c r="D527" s="2">
-        <v>0.383648933027871</v>
+        <v>0.4053932649549097</v>
       </c>
       <c r="E527" s="2">
         <v>2515.784781042937</v>
@@ -13108,7 +13108,7 @@
         <v>12</v>
       </c>
       <c r="D528" s="2">
-        <v>0.3591521079652011</v>
+        <v>0.4017201999668032</v>
       </c>
       <c r="E528" s="2">
         <v>2330.883971012533</v>
@@ -13132,7 +13132,7 @@
         <v>13</v>
       </c>
       <c r="D529" s="2">
-        <v>0.3880023449892178</v>
+        <v>0.4340757860336453</v>
       </c>
       <c r="E529" s="2">
         <v>2012.8900403809</v>
@@ -13156,7 +13156,7 @@
         <v>14</v>
       </c>
       <c r="D530" s="2">
-        <v>0.4220053539611399</v>
+        <v>0.4078258408699185</v>
       </c>
       <c r="E530" s="2">
         <v>2214.722256504378</v>
@@ -13180,7 +13180,7 @@
         <v>15</v>
       </c>
       <c r="D531" s="2">
-        <v>0.3636880909325555</v>
+        <v>0.398968021152541</v>
       </c>
       <c r="E531" s="2">
         <v>2761.621244380339</v>
@@ -13204,7 +13204,7 @@
         <v>16</v>
       </c>
       <c r="D532" s="2">
-        <v>0.3813394889002666</v>
+        <v>0.4490337998140603</v>
       </c>
       <c r="E532" s="2">
         <v>1662.79406743745</v>
@@ -13228,7 +13228,7 @@
         <v>17</v>
       </c>
       <c r="D533" s="2">
-        <v>0.3686479539610445</v>
+        <v>0.4261777540668845</v>
       </c>
       <c r="E533" s="2">
         <v>2085.447517447846</v>
@@ -13252,7 +13252,7 @@
         <v>18</v>
       </c>
       <c r="D534" s="2">
-        <v>0.3640850110678002</v>
+        <v>0.3880949388258159</v>
       </c>
       <c r="E534" s="2">
         <v>2615.58332638977</v>
@@ -13276,7 +13276,7 @@
         <v>19</v>
       </c>
       <c r="D535" s="2">
-        <v>0.3664051410742104</v>
+        <v>0.4011671799235046</v>
       </c>
       <c r="E535" s="2">
         <v>2133.456259208296</v>
@@ -13300,7 +13300,7 @@
         <v>20</v>
       </c>
       <c r="D536" s="2">
-        <v>0.3699362860061228</v>
+        <v>0.3857996049337089</v>
       </c>
       <c r="E536" s="2">
         <v>2196.360926231525</v>
@@ -13324,7 +13324,7 @@
         <v>21</v>
       </c>
       <c r="D537" s="2">
-        <v>0.3681004509562626</v>
+        <v>0.4108540420420468</v>
       </c>
       <c r="E537" s="2">
         <v>2286.352332836394</v>
@@ -13348,7 +13348,7 @@
         <v>22</v>
       </c>
       <c r="D538" s="2">
-        <v>0.3715725789079443</v>
+        <v>0.4105497340206057</v>
       </c>
       <c r="E538" s="2">
         <v>2547.355627351469</v>
@@ -13372,7 +13372,7 @@
         <v>23</v>
       </c>
       <c r="D539" s="2">
-        <v>0.3750852859811857</v>
+        <v>0.3730576541274786</v>
       </c>
       <c r="E539" s="2">
         <v>2254.841000764881</v>
@@ -13396,7 +13396,7 @@
         <v>24</v>
       </c>
       <c r="D540" s="2">
-        <v>0.3672545769950375</v>
+        <v>0.400338628096506</v>
       </c>
       <c r="E540" s="2">
         <v>2836.17440653855</v>
@@ -13420,7 +13420,7 @@
         <v>25</v>
       </c>
       <c r="D541" s="2">
-        <v>0.3644097130745649</v>
+        <v>0.4318345109932125</v>
       </c>
       <c r="E541" s="2">
         <v>1508.463386125732</v>
@@ -13444,7 +13444,7 @@
         <v>26</v>
       </c>
       <c r="D542" s="2">
-        <v>0.3714690019842237</v>
+        <v>0.4157012430950999</v>
       </c>
       <c r="E542" s="2">
         <v>2108.067650522278</v>
@@ -13468,7 +13468,7 @@
         <v>27</v>
       </c>
       <c r="D543" s="2">
-        <v>0.3731074590468779</v>
+        <v>0.4010139440651983</v>
       </c>
       <c r="E543" s="2">
         <v>2419.177889822883</v>
@@ -13492,7 +13492,7 @@
         <v>28</v>
       </c>
       <c r="D544" s="2">
-        <v>0.3683627139544114</v>
+        <v>0.3938490580767393</v>
       </c>
       <c r="E544" s="2">
         <v>2091.567187464033</v>
@@ -13516,7 +13516,7 @@
         <v>29</v>
       </c>
       <c r="D545" s="2">
-        <v>0.3741809530183673</v>
+        <v>0.3959533700253814</v>
       </c>
       <c r="E545" s="2">
         <v>1626.437804311405</v>
@@ -13540,7 +13540,7 @@
         <v>30</v>
       </c>
       <c r="D546" s="2">
-        <v>0.3669812800362706</v>
+        <v>0.392580911051482</v>
       </c>
       <c r="E546" s="2">
         <v>1977.748380989204</v>
@@ -13564,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="D547" s="2">
-        <v>0.3870050500845537</v>
+        <v>0.4145282940007746</v>
       </c>
       <c r="E547" s="2">
         <v>2046.577425670003</v>
@@ -13588,7 +13588,7 @@
         <v>2</v>
       </c>
       <c r="D548" s="2">
-        <v>0.3741159989731386</v>
+        <v>0.408174498938024</v>
       </c>
       <c r="E548" s="2">
         <v>2489.815935428408</v>
@@ -13612,7 +13612,7 @@
         <v>3</v>
       </c>
       <c r="D549" s="2">
-        <v>0.3628753219963983</v>
+        <v>0.4491909469943494</v>
       </c>
       <c r="E549" s="2">
         <v>1978.991100844814</v>
@@ -13636,7 +13636,7 @@
         <v>4</v>
       </c>
       <c r="D550" s="2">
-        <v>0.3676424870500341</v>
+        <v>0.3945187160279602</v>
       </c>
       <c r="E550" s="2">
         <v>1790.399229257609</v>
@@ -13660,7 +13660,7 @@
         <v>5</v>
       </c>
       <c r="D551" s="2">
-        <v>0.3766900789923966</v>
+        <v>0.4035228590946645</v>
       </c>
       <c r="E551" s="2">
         <v>1596.002870457472</v>
@@ -13684,7 +13684,7 @@
         <v>6</v>
       </c>
       <c r="D552" s="2">
-        <v>0.3667174800066277</v>
+        <v>0.390869049821049</v>
       </c>
       <c r="E552" s="2">
         <v>2327.270245252881</v>
@@ -13708,7 +13708,7 @@
         <v>7</v>
       </c>
       <c r="D553" s="2">
-        <v>0.355503345024772</v>
+        <v>0.4075042121112347</v>
       </c>
       <c r="E553" s="2">
         <v>2647.62307345825</v>
@@ -13732,7 +13732,7 @@
         <v>8</v>
       </c>
       <c r="D554" s="2">
-        <v>0.3727021579397842</v>
+        <v>0.4137861381750554</v>
       </c>
       <c r="E554" s="2">
         <v>1957.436792224215</v>
@@ -13756,7 +13756,7 @@
         <v>9</v>
       </c>
       <c r="D555" s="2">
-        <v>0.3635728489607573</v>
+        <v>0.4075665129348636</v>
       </c>
       <c r="E555" s="2">
         <v>2404.126746163444</v>
@@ -13780,7 +13780,7 @@
         <v>10</v>
       </c>
       <c r="D556" s="2">
-        <v>0.3644264061003923</v>
+        <v>0.3945756391622126</v>
       </c>
       <c r="E556" s="2">
         <v>2386.089539968864</v>
@@ -13804,7 +13804,7 @@
         <v>11</v>
       </c>
       <c r="D557" s="2">
-        <v>0.3953663599677384</v>
+        <v>0.4464715239591897</v>
       </c>
       <c r="E557" s="2">
         <v>2157.177990245329</v>
@@ -13828,7 +13828,7 @@
         <v>12</v>
       </c>
       <c r="D558" s="2">
-        <v>0.3675732029369101</v>
+        <v>0.4056115958373994</v>
       </c>
       <c r="E558" s="2">
         <v>2152.108668756034</v>
@@ -13852,7 +13852,7 @@
         <v>13</v>
       </c>
       <c r="D559" s="2">
-        <v>0.3760910319397226</v>
+        <v>0.4309544151183218</v>
       </c>
       <c r="E559" s="2">
         <v>2128.976555804647</v>
@@ -13876,7 +13876,7 @@
         <v>14</v>
       </c>
       <c r="D560" s="2">
-        <v>0.3598680719733238</v>
+        <v>0.4128910938743502</v>
       </c>
       <c r="E560" s="2">
         <v>1900.353956368338</v>
@@ -13900,7 +13900,7 @@
         <v>15</v>
       </c>
       <c r="D561" s="2">
-        <v>0.3674240869004279</v>
+        <v>0.39017543499358</v>
       </c>
       <c r="E561" s="2">
         <v>2613.432805816006</v>
@@ -13924,7 +13924,7 @@
         <v>16</v>
       </c>
       <c r="D562" s="2">
-        <v>0.354892982984893</v>
+        <v>0.4125084220431745</v>
       </c>
       <c r="E562" s="2">
         <v>2487.502702933235</v>
@@ -13948,7 +13948,7 @@
         <v>17</v>
       </c>
       <c r="D563" s="2">
-        <v>0.3634344200836495</v>
+        <v>0.41449148603715</v>
       </c>
       <c r="E563" s="2">
         <v>2489.833542444557</v>
@@ -13972,7 +13972,7 @@
         <v>18</v>
       </c>
       <c r="D564" s="2">
-        <v>0.3687533480115235</v>
+        <v>0.4136808828916401</v>
       </c>
       <c r="E564" s="2">
         <v>2287.395640825169</v>
@@ -13996,7 +13996,7 @@
         <v>19</v>
       </c>
       <c r="D565" s="2">
-        <v>0.3658438789425418</v>
+        <v>0.4019502638839185</v>
       </c>
       <c r="E565" s="2">
         <v>2207.99519329207</v>
@@ -14020,7 +14020,7 @@
         <v>20</v>
       </c>
       <c r="D566" s="2">
-        <v>0.3639455330558121</v>
+        <v>0.3979285419918597</v>
       </c>
       <c r="E566" s="2">
         <v>2394.813887481044</v>
@@ -14044,7 +14044,7 @@
         <v>21</v>
       </c>
       <c r="D567" s="2">
-        <v>0.3671473669819534</v>
+        <v>0.395487094996497</v>
       </c>
       <c r="E567" s="2">
         <v>2590.77446502592</v>
@@ -14068,7 +14068,7 @@
         <v>22</v>
       </c>
       <c r="D568" s="2">
-        <v>0.3668532560113817</v>
+        <v>0.3783579999580979</v>
       </c>
       <c r="E568" s="2">
         <v>2074.067202624127</v>
@@ -14092,7 +14092,7 @@
         <v>23</v>
       </c>
       <c r="D569" s="2">
-        <v>0.3903833780204877</v>
+        <v>0.399264995008707</v>
       </c>
       <c r="E569" s="2">
         <v>2493.48487271669</v>
@@ -14116,7 +14116,7 @@
         <v>24</v>
       </c>
       <c r="D570" s="2">
-        <v>0.362299742992036</v>
+        <v>0.3960225849878043</v>
       </c>
       <c r="E570" s="2">
         <v>2473.270658067452</v>
@@ -14140,7 +14140,7 @@
         <v>25</v>
       </c>
       <c r="D571" s="2">
-        <v>0.3819038930814713</v>
+        <v>0.4276202309411019</v>
       </c>
       <c r="E571" s="2">
         <v>2342.798690523809</v>
@@ -14164,7 +14164,7 @@
         <v>26</v>
       </c>
       <c r="D572" s="2">
-        <v>0.3640103479847312</v>
+        <v>0.3981409349944443</v>
       </c>
       <c r="E572" s="2">
         <v>1991.072920330166</v>
@@ -14188,7 +14188,7 @@
         <v>27</v>
       </c>
       <c r="D573" s="2">
-        <v>0.3666417009662837</v>
+        <v>0.4408876840025187</v>
       </c>
       <c r="E573" s="2">
         <v>2687.229244491341</v>
@@ -14212,7 +14212,7 @@
         <v>28</v>
       </c>
       <c r="D574" s="2">
-        <v>0.3792083550943062</v>
+        <v>0.4106534509919584</v>
       </c>
       <c r="E574" s="2">
         <v>1859.092355265138</v>
@@ -14236,7 +14236,7 @@
         <v>29</v>
       </c>
       <c r="D575" s="2">
-        <v>0.3605762859806418</v>
+        <v>0.4060308649204671</v>
       </c>
       <c r="E575" s="2">
         <v>2231.450577075297</v>
@@ -14260,7 +14260,7 @@
         <v>30</v>
       </c>
       <c r="D576" s="2">
-        <v>0.3653429619735107</v>
+        <v>0.4091006920207292</v>
       </c>
       <c r="E576" s="2">
         <v>2490.747036568571</v>
@@ -14284,7 +14284,7 @@
         <v>31</v>
       </c>
       <c r="D577" s="2">
-        <v>0.3866830719634891</v>
+        <v>0.4117951109074056</v>
       </c>
       <c r="E577" s="2">
         <v>2474.473297782563</v>
@@ -14308,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="D578" s="2">
-        <v>0.3656758350552991</v>
+        <v>0.3906655260361731</v>
       </c>
       <c r="E578" s="2">
         <v>2301.518643917839</v>
@@ -14332,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="D579" s="2">
-        <v>0.3660390919540077</v>
+        <v>0.3821551071014255</v>
       </c>
       <c r="E579" s="2">
         <v>2591.066825600688</v>
@@ -14356,7 +14356,7 @@
         <v>3</v>
       </c>
       <c r="D580" s="2">
-        <v>0.3618442930746824</v>
+        <v>0.4067099529784173</v>
       </c>
       <c r="E580" s="2">
         <v>2151.984465630095</v>
@@ -14380,7 +14380,7 @@
         <v>4</v>
       </c>
       <c r="D581" s="2">
-        <v>0.3730291640385985</v>
+        <v>0.4050934968981892</v>
       </c>
       <c r="E581" s="2">
         <v>2289.876019554797</v>
@@ -14404,7 +14404,7 @@
         <v>5</v>
       </c>
       <c r="D582" s="2">
-        <v>0.3666826989501715</v>
+        <v>0.4054647139273584</v>
       </c>
       <c r="E582" s="2">
         <v>2908.241676124568</v>
@@ -14428,7 +14428,7 @@
         <v>6</v>
       </c>
       <c r="D583" s="2">
-        <v>0.3918167760130018</v>
+        <v>0.4310467480681837</v>
       </c>
       <c r="E583" s="2">
         <v>1977.852055168919</v>
@@ -14452,7 +14452,7 @@
         <v>7</v>
       </c>
       <c r="D584" s="2">
-        <v>0.368956592050381</v>
+        <v>0.3877507511060685</v>
       </c>
       <c r="E584" s="2">
         <v>3034.304251241752</v>
@@ -14476,7 +14476,7 @@
         <v>8</v>
       </c>
       <c r="D585" s="2">
-        <v>0.3697352070594206</v>
+        <v>0.4248568760231137</v>
       </c>
       <c r="E585" s="2">
         <v>2170.045239559243</v>
@@ -14500,7 +14500,7 @@
         <v>9</v>
       </c>
       <c r="D586" s="2">
-        <v>0.3672141379211098</v>
+        <v>0.3950251508504152</v>
       </c>
       <c r="E586" s="2">
         <v>2434.508099127635</v>
@@ -14524,7 +14524,7 @@
         <v>10</v>
       </c>
       <c r="D587" s="2">
-        <v>0.3616337840212509</v>
+        <v>0.4123209631070495</v>
       </c>
       <c r="E587" s="2">
         <v>1742.125048717342</v>
@@ -14548,7 +14548,7 @@
         <v>11</v>
       </c>
       <c r="D588" s="2">
-        <v>0.3761734459549189</v>
+        <v>0.3943462728057057</v>
       </c>
       <c r="E588" s="2">
         <v>2262.978982226093</v>
@@ -14572,7 +14572,7 @@
         <v>12</v>
       </c>
       <c r="D589" s="2">
-        <v>0.3606239879736677</v>
+        <v>0.3991459128446877</v>
       </c>
       <c r="E589" s="2">
         <v>1827.416755865211</v>
@@ -14596,7 +14596,7 @@
         <v>13</v>
       </c>
       <c r="D590" s="2">
-        <v>0.3613906590035185</v>
+        <v>0.432969885179773</v>
       </c>
       <c r="E590" s="2">
         <v>2094.541392896308</v>
@@ -14620,7 +14620,7 @@
         <v>14</v>
       </c>
       <c r="D591" s="2">
-        <v>0.3678518779342994</v>
+        <v>0.3964755188208073</v>
       </c>
       <c r="E591" s="2">
         <v>2132.120880115576</v>
@@ -14644,7 +14644,7 @@
         <v>15</v>
       </c>
       <c r="D592" s="2">
-        <v>0.3808334029745311</v>
+        <v>0.4084987819660455</v>
       </c>
       <c r="E592" s="2">
         <v>1706.722863988275</v>
@@ -14668,7 +14668,7 @@
         <v>16</v>
       </c>
       <c r="D593" s="2">
-        <v>0.3750579770421609</v>
+        <v>0.4125921649392694</v>
       </c>
       <c r="E593" s="2">
         <v>1927.662266081701</v>
@@ -14692,7 +14692,7 @@
         <v>17</v>
       </c>
       <c r="D594" s="2">
-        <v>0.3810457959771156</v>
+        <v>0.4367938821669668</v>
       </c>
       <c r="E594" s="2">
         <v>2136.437030087858</v>
@@ -14716,7 +14716,7 @@
         <v>18</v>
       </c>
       <c r="D595" s="2">
-        <v>0.3652837339323014</v>
+        <v>0.4045157528016716</v>
       </c>
       <c r="E595" s="2">
         <v>2291.067374903104</v>
@@ -14740,7 +14740,7 @@
         <v>19</v>
       </c>
       <c r="D596" s="2">
-        <v>0.3569873089436442</v>
+        <v>0.381386969005689</v>
       </c>
       <c r="E596" s="2">
         <v>1989.855084532628</v>
@@ -14764,7 +14764,7 @@
         <v>20</v>
       </c>
       <c r="D597" s="2">
-        <v>0.3824366590706632</v>
+        <v>0.3854904789477587</v>
       </c>
       <c r="E597" s="2">
         <v>1828.895662138805</v>
@@ -14788,7 +14788,7 @@
         <v>21</v>
       </c>
       <c r="D598" s="2">
-        <v>0.3630639699986205</v>
+        <v>0.4037599770817906</v>
       </c>
       <c r="E598" s="2">
         <v>2925.231400437444</v>
@@ -14812,7 +14812,7 @@
         <v>22</v>
       </c>
       <c r="D599" s="2">
-        <v>0.3630052310181782</v>
+        <v>0.3920582730788738</v>
       </c>
       <c r="E599" s="2">
         <v>1470.406479418251</v>
@@ -14836,7 +14836,7 @@
         <v>23</v>
       </c>
       <c r="D600" s="2">
-        <v>0.3619223779533058</v>
+        <v>0.3947850989643484</v>
       </c>
       <c r="E600" s="2">
         <v>2026.962023220685</v>
@@ -14860,7 +14860,7 @@
         <v>24</v>
       </c>
       <c r="D601" s="2">
-        <v>0.3673321730457246</v>
+        <v>0.3927439260296524</v>
       </c>
       <c r="E601" s="2">
         <v>2239.351199817958</v>
@@ -14884,7 +14884,7 @@
         <v>25</v>
       </c>
       <c r="D602" s="2">
-        <v>0.3708744939649478</v>
+        <v>0.4907925431616604</v>
       </c>
       <c r="E602" s="2">
         <v>2013.204892291385</v>
@@ -14908,7 +14908,7 @@
         <v>26</v>
       </c>
       <c r="D603" s="2">
-        <v>0.3624345400603488</v>
+        <v>0.4772826628759503</v>
       </c>
       <c r="E603" s="2">
         <v>1599.809383623278</v>
@@ -14932,7 +14932,7 @@
         <v>27</v>
       </c>
       <c r="D604" s="2">
-        <v>0.3718363769585267</v>
+        <v>0.4160506010521203</v>
       </c>
       <c r="E604" s="2">
         <v>2338.223375066059</v>
@@ -14956,7 +14956,7 @@
         <v>28</v>
       </c>
       <c r="D605" s="2">
-        <v>0.368003437994048</v>
+        <v>0.400974762160331</v>
       </c>
       <c r="E605" s="2">
         <v>1751.431239594558</v>
@@ -14980,7 +14980,7 @@
         <v>29</v>
       </c>
       <c r="D606" s="2">
-        <v>0.3681580720003694</v>
+        <v>0.4102959930896759</v>
       </c>
       <c r="E606" s="2">
         <v>2004.246526083771</v>
@@ -15004,7 +15004,7 @@
         <v>30</v>
       </c>
       <c r="D607" s="2">
-        <v>0.36835922091268</v>
+        <v>0.4220126429572701</v>
       </c>
       <c r="E607" s="2">
         <v>2231.749643289461</v>
@@ -15028,7 +15028,7 @@
         <v>31</v>
       </c>
       <c r="D608" s="2">
-        <v>0.3743096739053726</v>
+        <v>0.4034386980347335</v>
       </c>
       <c r="E608" s="2">
         <v>2406.821086533567</v>
@@ -15052,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="D609" s="2">
-        <v>0.3665525109972805</v>
+        <v>0.4016859070397913</v>
       </c>
       <c r="E609" s="2">
         <v>2327.957608823107</v>
@@ -15076,7 +15076,7 @@
         <v>2</v>
       </c>
       <c r="D610" s="2">
-        <v>0.3567117070779204</v>
+        <v>0.3860840068664402</v>
       </c>
       <c r="E610" s="2">
         <v>2171.153844100806</v>
@@ -15100,7 +15100,7 @@
         <v>3</v>
       </c>
       <c r="D611" s="2">
-        <v>0.3611794529715553</v>
+        <v>0.4032777091488242</v>
       </c>
       <c r="E611" s="2">
         <v>1906.662052394822</v>
@@ -15124,7 +15124,7 @@
         <v>4</v>
       </c>
       <c r="D612" s="2">
-        <v>0.3679275880567729</v>
+        <v>0.4406081009656191</v>
       </c>
       <c r="E612" s="2">
         <v>2423.659351483436</v>
@@ -15148,7 +15148,7 @@
         <v>5</v>
       </c>
       <c r="D613" s="2">
-        <v>0.3671060900669545</v>
+        <v>0.4170160458888859</v>
       </c>
       <c r="E613" s="2">
         <v>1804.152132028261</v>
@@ -15172,7 +15172,7 @@
         <v>6</v>
       </c>
       <c r="D614" s="2">
-        <v>0.3634123490191996</v>
+        <v>0.4298295171465725</v>
       </c>
       <c r="E614" s="2">
         <v>1613.410991212589</v>
@@ -15196,7 +15196,7 @@
         <v>7</v>
       </c>
       <c r="D615" s="2">
-        <v>0.3584280400536954</v>
+        <v>0.4524330778513104</v>
       </c>
       <c r="E615" s="2">
         <v>2460.321962390805</v>
@@ -15220,7 +15220,7 @@
         <v>8</v>
       </c>
       <c r="D616" s="2">
-        <v>0.3623889319133013</v>
+        <v>0.428308606846258</v>
       </c>
       <c r="E616" s="2">
         <v>2099.104281430785</v>
@@ -15244,7 +15244,7 @@
         <v>9</v>
       </c>
       <c r="D617" s="2">
-        <v>0.3708655529189855</v>
+        <v>0.4400965669192374</v>
       </c>
       <c r="E617" s="2">
         <v>2292.592426568115</v>
@@ -15268,7 +15268,7 @@
         <v>10</v>
       </c>
       <c r="D618" s="2">
-        <v>0.3625233110506088</v>
+        <v>0.409476239932701</v>
       </c>
       <c r="E618" s="2">
         <v>2379.813822934559</v>
@@ -15292,7 +15292,7 @@
         <v>11</v>
       </c>
       <c r="D619" s="2">
-        <v>0.3643483209889382</v>
+        <v>0.4554688921198249</v>
       </c>
       <c r="E619" s="2">
         <v>2192.39904122184</v>
@@ -15316,7 +15316,7 @@
         <v>12</v>
       </c>
       <c r="D620" s="2">
-        <v>0.3674781450536102</v>
+        <v>0.4206661321222782</v>
       </c>
       <c r="E620" s="2">
         <v>2336.315711300592</v>
@@ -15340,7 +15340,7 @@
         <v>13</v>
       </c>
       <c r="D621" s="2">
-        <v>0.3587429639883339</v>
+        <v>0.4594898459035903</v>
       </c>
       <c r="E621" s="2">
         <v>2192.78378301397</v>
@@ -15364,7 +15364,7 @@
         <v>14</v>
       </c>
       <c r="D622" s="2">
-        <v>0.3673875590320677</v>
+        <v>0.4339316298719496</v>
       </c>
       <c r="E622" s="2">
         <v>2540.929347956933</v>
@@ -15388,7 +15388,7 @@
         <v>15</v>
       </c>
       <c r="D623" s="2">
-        <v>0.3684838908957317</v>
+        <v>0.4294704520143569</v>
       </c>
       <c r="E623" s="2">
         <v>2440.225800559598</v>
@@ -15412,7 +15412,7 @@
         <v>16</v>
       </c>
       <c r="D624" s="2">
-        <v>0.3645666510565206</v>
+        <v>0.4521645300555974</v>
       </c>
       <c r="E624" s="2">
         <v>2668.359089606316</v>
@@ -15436,7 +15436,7 @@
         <v>17</v>
       </c>
       <c r="D625" s="2">
-        <v>0.3640934620052576</v>
+        <v>0.4176894058473408</v>
       </c>
       <c r="E625" s="2">
         <v>1838.257110859417</v>
@@ -15460,7 +15460,7 @@
         <v>18</v>
       </c>
       <c r="D626" s="2">
-        <v>0.3842533580027521</v>
+        <v>0.4456947960425168</v>
       </c>
       <c r="E626" s="2">
         <v>2512.190926884556</v>
@@ -15484,7 +15484,7 @@
         <v>19</v>
       </c>
       <c r="D627" s="2">
-        <v>0.3618218030314893</v>
+        <v>0.4115985021926463</v>
       </c>
       <c r="E627" s="2">
         <v>2107.773356067431</v>
@@ -15508,7 +15508,7 @@
         <v>20</v>
       </c>
       <c r="D628" s="2">
-        <v>0.3623178320704028</v>
+        <v>0.4098727419041097</v>
       </c>
       <c r="E628" s="2">
         <v>2511.577097266536</v>
@@ -15532,7 +15532,7 @@
         <v>21</v>
       </c>
       <c r="D629" s="2">
-        <v>0.3659121160162613</v>
+        <v>0.4239620419684798</v>
       </c>
       <c r="E629" s="2">
         <v>2477.663078582862</v>
@@ -15556,7 +15556,7 @@
         <v>22</v>
       </c>
       <c r="D630" s="2">
-        <v>0.3640105570666492</v>
+        <v>0.4070037840865552</v>
       </c>
       <c r="E630" s="2">
         <v>2356.44793896376</v>
@@ -15580,7 +15580,7 @@
         <v>23</v>
       </c>
       <c r="D631" s="2">
-        <v>0.3614005079725757</v>
+        <v>0.4226065909024328</v>
       </c>
       <c r="E631" s="2">
         <v>2355.119620079797</v>
@@ -15604,7 +15604,7 @@
         <v>24</v>
       </c>
       <c r="D632" s="2">
-        <v>0.3899425260024145</v>
+        <v>0.4040013561025262</v>
       </c>
       <c r="E632" s="2">
         <v>2537.324775389102</v>
@@ -15628,7 +15628,7 @@
         <v>25</v>
       </c>
       <c r="D633" s="2">
-        <v>0.3847866109572351</v>
+        <v>0.4200057629495859</v>
       </c>
       <c r="E633" s="2">
         <v>1931.908183783254</v>
@@ -15652,7 +15652,7 @@
         <v>26</v>
       </c>
       <c r="D634" s="2">
-        <v>0.363220977014862</v>
+        <v>0.4237143779173493</v>
       </c>
       <c r="E634" s="2">
         <v>2380.10626646524</v>
@@ -15676,7 +15676,7 @@
         <v>27</v>
       </c>
       <c r="D635" s="2">
-        <v>0.3646498350426555</v>
+        <v>0.4226880290079862</v>
       </c>
       <c r="E635" s="2">
         <v>2073.741258315457</v>
@@ -15700,7 +15700,7 @@
         <v>28</v>
       </c>
       <c r="D636" s="2">
-        <v>0.3681748339440674</v>
+        <v>0.4374842839315534</v>
       </c>
       <c r="E636" s="2">
         <v>2236.755144708267</v>
@@ -15724,7 +15724,7 @@
         <v>29</v>
       </c>
       <c r="D637" s="2">
-        <v>0.3878310880390927</v>
+        <v>0.3987491319421679</v>
       </c>
       <c r="E637" s="2">
         <v>2340.636184569497</v>
@@ -15748,7 +15748,7 @@
         <v>30</v>
       </c>
       <c r="D638" s="2">
-        <v>0.3672422840027139</v>
+        <v>0.4233497951645404</v>
       </c>
       <c r="E638" s="2">
         <v>2044.586371035601</v>
@@ -15772,7 +15772,7 @@
         <v>1</v>
       </c>
       <c r="D639" s="2">
-        <v>0.3629237239947543</v>
+        <v>0.419426481006667</v>
       </c>
       <c r="E639" s="2">
         <v>2415.899193643458</v>
@@ -15796,7 +15796,7 @@
         <v>2</v>
       </c>
       <c r="D640" s="2">
-        <v>0.3712969759944826</v>
+        <v>0.399879687000066</v>
       </c>
       <c r="E640" s="2">
         <v>1984.226269238173</v>
@@ -15820,7 +15820,7 @@
         <v>3</v>
       </c>
       <c r="D641" s="2">
-        <v>0.3633131709648296</v>
+        <v>0.3852748719509691</v>
       </c>
       <c r="E641" s="2">
         <v>1883.701960722469</v>
@@ -15844,7 +15844,7 @@
         <v>4</v>
       </c>
       <c r="D642" s="2">
-        <v>0.3782993420027196</v>
+        <v>0.4007314969785511</v>
       </c>
       <c r="E642" s="2">
         <v>2079.253307977041</v>
@@ -15868,7 +15868,7 @@
         <v>5</v>
       </c>
       <c r="D643" s="2">
-        <v>0.3785833950387314</v>
+        <v>0.4373279050923884</v>
       </c>
       <c r="E643" s="2">
         <v>2170.170506875115</v>
@@ -15892,7 +15892,7 @@
         <v>6</v>
       </c>
       <c r="D644" s="2">
-        <v>0.3718075319193304</v>
+        <v>0.3888750900514424</v>
       </c>
       <c r="E644" s="2">
         <v>2713.515501535469</v>
@@ -15916,7 +15916,7 @@
         <v>7</v>
       </c>
       <c r="D645" s="2">
-        <v>0.3758694180287421</v>
+        <v>0.3958275117911398</v>
       </c>
       <c r="E645" s="2">
         <v>1905.791591851349</v>
@@ -15940,7 +15940,7 @@
         <v>8</v>
       </c>
       <c r="D646" s="2">
-        <v>0.3573478410253301</v>
+        <v>0.4119303978513926</v>
       </c>
       <c r="E646" s="2">
         <v>1877.991116075696</v>
@@ -15964,7 +15964,7 @@
         <v>9</v>
       </c>
       <c r="D647" s="2">
-        <v>0.3651534758973867</v>
+        <v>0.3906461801379919</v>
       </c>
       <c r="E647" s="2">
         <v>2003.903832297094</v>
@@ -15988,7 +15988,7 @@
         <v>10</v>
       </c>
       <c r="D648" s="2">
-        <v>0.3657949879998341</v>
+        <v>0.406504682963714</v>
       </c>
       <c r="E648" s="2">
         <v>2143.159097721894</v>
@@ -16012,7 +16012,7 @@
         <v>11</v>
       </c>
       <c r="D649" s="2">
-        <v>0.3623211139347404</v>
+        <v>0.4044584811199456</v>
       </c>
       <c r="E649" s="2">
         <v>2045.998841138761</v>
@@ -16036,7 +16036,7 @@
         <v>12</v>
       </c>
       <c r="D650" s="2">
-        <v>0.374108524993062</v>
+        <v>0.404234912013635</v>
       </c>
       <c r="E650" s="2">
         <v>2209.573678863542</v>
@@ -16060,7 +16060,7 @@
         <v>13</v>
       </c>
       <c r="D651" s="2">
-        <v>0.3604106860002503</v>
+        <v>0.4155672139022499</v>
       </c>
       <c r="E651" s="2">
         <v>1864.038793126003</v>
@@ -16084,7 +16084,7 @@
         <v>14</v>
       </c>
       <c r="D652" s="2">
-        <v>0.3786195740103722</v>
+        <v>0.4047588079702109</v>
       </c>
       <c r="E652" s="2">
         <v>2101.798313960515</v>
@@ -16108,7 +16108,7 @@
         <v>15</v>
       </c>
       <c r="D653" s="2">
-        <v>0.3612901550950482</v>
+        <v>0.4034369520377368</v>
       </c>
       <c r="E653" s="2">
         <v>2145.449732074659</v>
@@ -16132,7 +16132,7 @@
         <v>16</v>
       </c>
       <c r="D654" s="2">
-        <v>0.3749583099270239</v>
+        <v>0.4379197580274194</v>
       </c>
       <c r="E654" s="2">
         <v>1637.499617248647</v>
@@ -16156,7 +16156,7 @@
         <v>17</v>
       </c>
       <c r="D655" s="2">
-        <v>0.3712401229422539</v>
+        <v>0.4217517778743058</v>
       </c>
       <c r="E655" s="2">
         <v>2187.991284142878</v>
@@ -16180,7 +16180,7 @@
         <v>18</v>
       </c>
       <c r="D656" s="2">
-        <v>0.362354081007652</v>
+        <v>0.3971072528511286</v>
       </c>
       <c r="E656" s="2">
         <v>2262.5436513441</v>
@@ -16204,7 +16204,7 @@
         <v>19</v>
       </c>
       <c r="D657" s="2">
-        <v>0.3736061400268227</v>
+        <v>0.3876427728682756</v>
       </c>
       <c r="E657" s="2">
         <v>2670.842628405685</v>
@@ -16228,7 +16228,7 @@
         <v>20</v>
       </c>
       <c r="D658" s="2">
-        <v>0.3696825440274552</v>
+        <v>0.383750329958275</v>
       </c>
       <c r="E658" s="2">
         <v>2300.575516284959</v>
@@ -16252,7 +16252,7 @@
         <v>21</v>
       </c>
       <c r="D659" s="2">
-        <v>0.3615130949765444</v>
+        <v>0.3964093769900501</v>
       </c>
       <c r="E659" s="2">
         <v>1614.671026771617</v>
@@ -16276,7 +16276,7 @@
         <v>22</v>
       </c>
       <c r="D660" s="2">
-        <v>0.3641631649807096</v>
+        <v>0.3934437569696456</v>
       </c>
       <c r="E660" s="2">
         <v>2198.599214065036</v>
@@ -16300,7 +16300,7 @@
         <v>23</v>
       </c>
       <c r="D661" s="2">
-        <v>0.3663615579716861</v>
+        <v>0.4006683588959277</v>
       </c>
       <c r="E661" s="2">
         <v>2119.865375415557</v>
@@ -16324,7 +16324,7 @@
         <v>24</v>
       </c>
       <c r="D662" s="2">
-        <v>0.3537112310295925</v>
+        <v>0.4015662660822272</v>
       </c>
       <c r="E662" s="2">
         <v>2325.228787745462</v>
@@ -16348,7 +16348,7 @@
         <v>25</v>
       </c>
       <c r="D663" s="2">
-        <v>0.3646427110070363</v>
+        <v>0.389263000106439</v>
       </c>
       <c r="E663" s="2">
         <v>2214.048556601009</v>
@@ -16372,7 +16372,7 @@
         <v>26</v>
       </c>
       <c r="D664" s="2">
-        <v>0.3634050140390173</v>
+        <v>0.4206056471448392</v>
       </c>
       <c r="E664" s="2">
         <v>2080.515674481825</v>
@@ -16396,7 +16396,7 @@
         <v>27</v>
       </c>
       <c r="D665" s="2">
-        <v>0.3841685670195147</v>
+        <v>0.393053611041978</v>
       </c>
       <c r="E665" s="2">
         <v>2056.562908057892</v>
@@ -16420,7 +16420,7 @@
         <v>28</v>
       </c>
       <c r="D666" s="2">
-        <v>0.3688942219596356</v>
+        <v>0.3953367220237851</v>
       </c>
       <c r="E666" s="2">
         <v>2319.894559457852</v>
@@ -16444,7 +16444,7 @@
         <v>29</v>
       </c>
       <c r="D667" s="2">
-        <v>0.3641845380188897</v>
+        <v>0.397531412076205</v>
       </c>
       <c r="E667" s="2">
         <v>1834.099021668695</v>
@@ -16468,7 +16468,7 @@
         <v>30</v>
       </c>
       <c r="D668" s="2">
-        <v>0.3666535030351952</v>
+        <v>0.3903427792247385</v>
       </c>
       <c r="E668" s="2">
         <v>2598.882684802517</v>
@@ -16492,7 +16492,7 @@
         <v>31</v>
       </c>
       <c r="D669" s="2">
-        <v>0.3582951279822737</v>
+        <v>0.3946872488595545</v>
       </c>
       <c r="E669" s="2">
         <v>1956.44274580333</v>
@@ -16516,7 +16516,7 @@
         <v>1</v>
       </c>
       <c r="D670" s="2">
-        <v>0.3727078139781952</v>
+        <v>0.4081899349112064</v>
       </c>
       <c r="E670" s="2">
         <v>1582.024710486505</v>
@@ -16540,7 +16540,7 @@
         <v>2</v>
       </c>
       <c r="D671" s="2">
-        <v>0.3639968680217862</v>
+        <v>0.3963108290918171</v>
       </c>
       <c r="E671" s="2">
         <v>2812.885011710088</v>
@@ -16564,7 +16564,7 @@
         <v>3</v>
       </c>
       <c r="D672" s="2">
-        <v>0.3645416470244527</v>
+        <v>0.4014176391065121</v>
       </c>
       <c r="E672" s="2">
         <v>2118.263736992478</v>
@@ -16588,7 +16588,7 @@
         <v>4</v>
       </c>
       <c r="D673" s="2">
-        <v>0.3598519379738718</v>
+        <v>0.409492515027523</v>
       </c>
       <c r="E673" s="2">
         <v>2132.693124401771</v>
@@ -16612,7 +16612,7 @@
         <v>5</v>
       </c>
       <c r="D674" s="2">
-        <v>0.3658197120530531</v>
+        <v>0.4364803549833596</v>
       </c>
       <c r="E674" s="2">
         <v>2027.730663656502</v>
@@ -16636,7 +16636,7 @@
         <v>6</v>
       </c>
       <c r="D675" s="2">
-        <v>0.3640611240407452</v>
+        <v>0.4081457939464599</v>
       </c>
       <c r="E675" s="2">
         <v>2168.662063859996</v>
@@ -16660,7 +16660,7 @@
         <v>7</v>
       </c>
       <c r="D676" s="2">
-        <v>0.3802803120343015</v>
+        <v>0.4167975061573088</v>
       </c>
       <c r="E676" s="2">
         <v>2497.4232548469</v>
@@ -16684,7 +16684,7 @@
         <v>8</v>
       </c>
       <c r="D677" s="2">
-        <v>0.3589186200406402</v>
+        <v>0.4145046169869602</v>
       </c>
       <c r="E677" s="2">
         <v>2198.229991667835</v>
@@ -16708,7 +16708,7 @@
         <v>9</v>
       </c>
       <c r="D678" s="2">
-        <v>0.3790523940697312</v>
+        <v>0.3939858819358051</v>
       </c>
       <c r="E678" s="2">
         <v>2812.714786904255</v>
@@ -16732,7 +16732,7 @@
         <v>10</v>
       </c>
       <c r="D679" s="2">
-        <v>0.3569076879648492</v>
+        <v>0.398062570951879</v>
       </c>
       <c r="E679" s="2">
         <v>2212.06807348578</v>
@@ -16756,7 +16756,7 @@
         <v>11</v>
       </c>
       <c r="D680" s="2">
-        <v>0.3646899240557104</v>
+        <v>0.4142748320009559</v>
       </c>
       <c r="E680" s="2">
         <v>2022.196653077408</v>
@@ -16780,7 +16780,7 @@
         <v>12</v>
       </c>
       <c r="D681" s="2">
-        <v>0.3754980600206181</v>
+        <v>0.399845534004271</v>
       </c>
       <c r="E681" s="2">
         <v>2327.473274297517</v>
@@ -16804,7 +16804,7 @@
         <v>13</v>
       </c>
       <c r="D682" s="2">
-        <v>0.3694750389549881</v>
+        <v>0.3987254549283534</v>
       </c>
       <c r="E682" s="2">
         <v>2018.188565122456</v>
@@ -16828,7 +16828,7 @@
         <v>14</v>
       </c>
       <c r="D683" s="2">
-        <v>0.3523209280101582</v>
+        <v>0.4108757628127933</v>
       </c>
       <c r="E683" s="2">
         <v>2163.289825849976</v>
@@ -16852,7 +16852,7 @@
         <v>15</v>
       </c>
       <c r="D684" s="2">
-        <v>0.3508984949439764</v>
+        <v>0.4242663499899209</v>
       </c>
       <c r="E684" s="2">
         <v>2379.640753035322</v>
@@ -16876,7 +16876,7 @@
         <v>16</v>
       </c>
       <c r="D685" s="2">
-        <v>0.3641233540838584</v>
+        <v>0.3950766259804368</v>
       </c>
       <c r="E685" s="2">
         <v>2065.555943045044</v>
@@ -16900,7 +16900,7 @@
         <v>17</v>
       </c>
       <c r="D686" s="2">
-        <v>0.3573428119998425</v>
+        <v>0.4056805309373885</v>
       </c>
       <c r="E686" s="2">
         <v>2111.66450043257</v>
@@ -16924,7 +16924,7 @@
         <v>18</v>
       </c>
       <c r="D687" s="2">
-        <v>0.3625859600724652</v>
+        <v>0.3761131640058011</v>
       </c>
       <c r="E687" s="2">
         <v>2764.964965474364</v>
@@ -16948,7 +16948,7 @@
         <v>19</v>
       </c>
       <c r="D688" s="2">
-        <v>0.3673265150282532</v>
+        <v>0.4071677760221064</v>
       </c>
       <c r="E688" s="2">
         <v>2456.751293400082</v>
@@ -16972,7 +16972,7 @@
         <v>20</v>
       </c>
       <c r="D689" s="2">
-        <v>0.404901318019256</v>
+        <v>0.4068647960666567</v>
       </c>
       <c r="E689" s="2">
         <v>2154.130336081528</v>
@@ -16996,7 +16996,7 @@
         <v>21</v>
       </c>
       <c r="D690" s="2">
-        <v>0.3813044960843399</v>
+        <v>0.4124604400712997</v>
       </c>
       <c r="E690" s="2">
         <v>1972.993351422253</v>
@@ -17020,7 +17020,7 @@
         <v>22</v>
       </c>
       <c r="D691" s="2">
-        <v>0.3599914150545374</v>
+        <v>0.3941731310915202</v>
       </c>
       <c r="E691" s="2">
         <v>2403.317186711863</v>
@@ -17044,7 +17044,7 @@
         <v>23</v>
       </c>
       <c r="D692" s="2">
-        <v>0.3651133849052712</v>
+        <v>0.4066234170459211</v>
       </c>
       <c r="E692" s="2">
         <v>2581.255010194272</v>
@@ -17068,7 +17068,7 @@
         <v>24</v>
       </c>
       <c r="D693" s="2">
-        <v>0.3664592690765858</v>
+        <v>0.4002835210412741</v>
       </c>
       <c r="E693" s="2">
         <v>2155.291143622384</v>
@@ -17092,7 +17092,7 @@
         <v>25</v>
       </c>
       <c r="D694" s="2">
-        <v>0.3612056439742446</v>
+        <v>0.4407837570179254</v>
       </c>
       <c r="E694" s="2">
         <v>1743.698134374437</v>
@@ -17116,7 +17116,7 @@
         <v>26</v>
       </c>
       <c r="D695" s="2">
-        <v>0.3742253029486164</v>
+        <v>0.4008903210051358</v>
       </c>
       <c r="E695" s="2">
         <v>2089.244998889167</v>
@@ -17140,7 +17140,7 @@
         <v>27</v>
       </c>
       <c r="D696" s="2">
-        <v>0.3682205110089853</v>
+        <v>0.3897537209559232</v>
       </c>
       <c r="E696" s="2">
         <v>2491.300557235434</v>
@@ -17164,7 +17164,7 @@
         <v>28</v>
       </c>
       <c r="D697" s="2">
-        <v>0.3546731160022318</v>
+        <v>0.3941210289485753</v>
       </c>
       <c r="E697" s="2">
         <v>2480.77542974682</v>
@@ -17188,7 +17188,7 @@
         <v>29</v>
       </c>
       <c r="D698" s="2">
-        <v>0.395255796960555</v>
+        <v>0.389684225898236</v>
       </c>
       <c r="E698" s="2">
         <v>1945.692170274769</v>
@@ -17212,7 +17212,7 @@
         <v>30</v>
       </c>
       <c r="D699" s="2">
-        <v>0.3727681579766795</v>
+        <v>0.3991340389475226</v>
       </c>
       <c r="E699" s="2">
         <v>1754.746795973851</v>
@@ -17236,7 +17236,7 @@
         <v>1</v>
       </c>
       <c r="D700" s="2">
-        <v>0.3629786900710315</v>
+        <v>0.406998755177483</v>
       </c>
       <c r="E700" s="2">
         <v>2199.741667094658</v>
@@ -17260,7 +17260,7 @@
         <v>2</v>
       </c>
       <c r="D701" s="2">
-        <v>0.3664210640126839</v>
+        <v>0.4178889491595328</v>
       </c>
       <c r="E701" s="2">
         <v>2080.169304587154</v>
@@ -17284,7 +17284,7 @@
         <v>3</v>
       </c>
       <c r="D702" s="2">
-        <v>0.3588389980141073</v>
+        <v>0.3973887921310961</v>
       </c>
       <c r="E702" s="2">
         <v>2139.946699132761</v>
@@ -17308,7 +17308,7 @@
         <v>4</v>
       </c>
       <c r="D703" s="2">
-        <v>0.3629437680356205</v>
+        <v>0.3937546999659389</v>
       </c>
       <c r="E703" s="2">
         <v>2589.430543398417</v>
@@ -17332,7 +17332,7 @@
         <v>5</v>
       </c>
       <c r="D704" s="2">
-        <v>0.372710047988221</v>
+        <v>0.4025028648320585</v>
       </c>
       <c r="E704" s="2">
         <v>2109.122946990047</v>
@@ -17356,7 +17356,7 @@
         <v>6</v>
       </c>
       <c r="D705" s="2">
-        <v>0.3590490870410576</v>
+        <v>0.4131604111753404</v>
       </c>
       <c r="E705" s="2">
         <v>2590.979311558054</v>
@@ -17380,7 +17380,7 @@
         <v>7</v>
       </c>
       <c r="D706" s="2">
-        <v>0.3619519909843802</v>
+        <v>0.4101885040290654</v>
       </c>
       <c r="E706" s="2">
         <v>2119.769952723327</v>
@@ -17404,7 +17404,7 @@
         <v>8</v>
       </c>
       <c r="D707" s="2">
-        <v>0.3680530269630253</v>
+        <v>0.4181284410879016</v>
       </c>
       <c r="E707" s="2">
         <v>1694.668386658944</v>
@@ -17428,7 +17428,7 @@
         <v>9</v>
       </c>
       <c r="D708" s="2">
-        <v>0.3623953580390662</v>
+        <v>0.3906378680840135</v>
       </c>
       <c r="E708" s="2">
         <v>2375.687641973688</v>
@@ -17452,7 +17452,7 @@
         <v>10</v>
       </c>
       <c r="D709" s="2">
-        <v>0.3670180169865489</v>
+        <v>0.3907228668686002</v>
       </c>
       <c r="E709" s="2">
         <v>2113.516609620399</v>
@@ -17476,7 +17476,7 @@
         <v>11</v>
       </c>
       <c r="D710" s="2">
-        <v>0.3737704819068313</v>
+        <v>0.4283900440204889</v>
       </c>
       <c r="E710" s="2">
         <v>2090.700046596344</v>
@@ -17500,7 +17500,7 @@
         <v>12</v>
       </c>
       <c r="D711" s="2">
-        <v>0.370042726979591</v>
+        <v>0.3905764759983867</v>
       </c>
       <c r="E711" s="2">
         <v>2098.694639352564</v>
@@ -17524,7 +17524,7 @@
         <v>13</v>
       </c>
       <c r="D712" s="2">
-        <v>0.3797129730228335</v>
+        <v>0.4050712869502604</v>
       </c>
       <c r="E712" s="2">
         <v>2162.012203625968</v>
@@ -17548,7 +17548,7 @@
         <v>14</v>
       </c>
       <c r="D713" s="2">
-        <v>0.3778207040159032</v>
+        <v>0.4090853971429169</v>
       </c>
       <c r="E713" s="2">
         <v>1855.996332842119</v>
@@ -17572,7 +17572,7 @@
         <v>15</v>
       </c>
       <c r="D714" s="2">
-        <v>0.3654547800542787</v>
+        <v>0.4272372091654688</v>
       </c>
       <c r="E714" s="2">
         <v>2152.977546274826</v>
@@ -17596,7 +17596,7 @@
         <v>16</v>
       </c>
       <c r="D715" s="2">
-        <v>0.3840252470690757</v>
+        <v>0.3855794589035213</v>
       </c>
       <c r="E715" s="2">
         <v>2239.217572283549</v>
@@ -17620,7 +17620,7 @@
         <v>17</v>
       </c>
       <c r="D716" s="2">
-        <v>0.3722141599282622</v>
+        <v>0.3969654010143131</v>
       </c>
       <c r="E716" s="2">
         <v>2654.925654383774</v>
@@ -17644,7 +17644,7 @@
         <v>18</v>
       </c>
       <c r="D717" s="2">
-        <v>0.3642470469931141</v>
+        <v>0.3982637899462134</v>
       </c>
       <c r="E717" s="2">
         <v>1916.042287114699</v>
@@ -17668,7 +17668,7 @@
         <v>19</v>
       </c>
       <c r="D718" s="2">
-        <v>0.3677659699460492</v>
+        <v>0.3937072069384158</v>
       </c>
       <c r="E718" s="2">
         <v>2366.344453456522</v>
@@ -17692,7 +17692,7 @@
         <v>20</v>
       </c>
       <c r="D719" s="2">
-        <v>0.3810399289941415</v>
+        <v>0.43428063695319</v>
       </c>
       <c r="E719" s="2">
         <v>1988.034409057532</v>
@@ -17716,7 +17716,7 @@
         <v>21</v>
       </c>
       <c r="D720" s="2">
-        <v>0.3630114459665492</v>
+        <v>0.3899922361597419</v>
       </c>
       <c r="E720" s="2">
         <v>2159.736195700308</v>
@@ -17740,7 +17740,7 @@
         <v>22</v>
       </c>
       <c r="D721" s="2">
-        <v>0.3718316280283034</v>
+        <v>0.4231145619414747</v>
       </c>
       <c r="E721" s="2">
         <v>2013.972667357302</v>
@@ -17764,7 +17764,7 @@
         <v>23</v>
       </c>
       <c r="D722" s="2">
-        <v>0.3721726039657369</v>
+        <v>0.4196643680334091</v>
       </c>
       <c r="E722" s="2">
         <v>1999.500988823738</v>
@@ -17788,7 +17788,7 @@
         <v>24</v>
       </c>
       <c r="D723" s="2">
-        <v>0.3673883959418163</v>
+        <v>1.028690272010863</v>
       </c>
       <c r="E723" s="2">
         <v>1860.216024852008</v>
@@ -17812,7 +17812,7 @@
         <v>25</v>
       </c>
       <c r="D724" s="2">
-        <v>0.3666595799149945</v>
+        <v>0.4005693211220205</v>
       </c>
       <c r="E724" s="2">
         <v>2119.819988570566</v>
@@ -17836,7 +17836,7 @@
         <v>26</v>
       </c>
       <c r="D725" s="2">
-        <v>0.3598021389916539</v>
+        <v>0.4028455868829042</v>
       </c>
       <c r="E725" s="2">
         <v>2846.595611672284</v>
@@ -17860,7 +17860,7 @@
         <v>27</v>
       </c>
       <c r="D726" s="2">
-        <v>0.362959832069464</v>
+        <v>0.4296700651757419</v>
       </c>
       <c r="E726" s="2">
         <v>2229.860544574427</v>
@@ -17884,7 +17884,7 @@
         <v>28</v>
       </c>
       <c r="D727" s="2">
-        <v>0.3663989941123873</v>
+        <v>0.421627736184746</v>
       </c>
       <c r="E727" s="2">
         <v>2351.606247694505</v>
@@ -17908,7 +17908,7 @@
         <v>29</v>
       </c>
       <c r="D728" s="2">
-        <v>0.3631681050173938</v>
+        <v>0.3992693249601871</v>
       </c>
       <c r="E728" s="2">
         <v>1671.37185218673</v>
@@ -17932,7 +17932,7 @@
         <v>30</v>
       </c>
       <c r="D729" s="2">
-        <v>0.3671921358909458</v>
+        <v>0.3839554600417614</v>
       </c>
       <c r="E729" s="2">
         <v>2374.205047790111</v>
